--- a/tests/regression_data_linux/performance_analysis_critical_mach_number_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_critical_mach_number_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015307483583644</v>
+        <v>2.015461016658452</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999965073</v>
+        <v>2.300000000051814</v>
       </c>
       <c r="D2" t="n">
-        <v>2.736586426036648</v>
+        <v>2.737065942821826</v>
       </c>
       <c r="E2" t="n">
-        <v>92.5666877337636</v>
+        <v>92.56376337565823</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08882413967603</v>
+        <v>79.09413211390523</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456016621535821</v>
+        <v>0.1455173252527364</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23442580182962</v>
+        <v>-78.23964943915797</v>
       </c>
       <c r="I2" t="n">
-        <v>136004.5605348734</v>
+        <v>136037.5212772349</v>
       </c>
       <c r="J2" t="n">
-        <v>83.59223142893265</v>
+        <v>83.61249002903192</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.55185721696588</v>
+        <v>-24.49242669086884</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2735091932223</v>
+        <v>135.2343262577869</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372085.8141397923</v>
+        <v>372082.4786624874</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.715515022808459</v>
+        <v>0.7155777079171034</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069586255048927</v>
+        <v>2.069685994689011</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999885468</v>
+        <v>2.39999999987482</v>
       </c>
       <c r="D3" t="n">
-        <v>2.739474097991548</v>
+        <v>2.739856258994599</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53503956748304</v>
+        <v>92.53315092672361</v>
       </c>
       <c r="F3" t="n">
-        <v>78.21203942143433</v>
+        <v>78.21512356147706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1547846114617304</v>
+        <v>0.1547340301486642</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.36682403289606</v>
+        <v>-77.36985759162572</v>
       </c>
       <c r="I3" t="n">
-        <v>140692.6951547797</v>
+        <v>140717.8707274362</v>
       </c>
       <c r="J3" t="n">
-        <v>86.47369093717255</v>
+        <v>86.48916455281878</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.96215513519312</v>
+        <v>-26.92738856692169</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5752883564967</v>
+        <v>142.5519907092413</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370426.8748123944</v>
+        <v>370424.8496267967</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7032570154581034</v>
+        <v>0.7033060664847693</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.51709292740061</v>
+        <v>80.53202493518603</v>
       </c>
       <c r="D2" t="n">
-        <v>80.51709292740061</v>
+        <v>80.53202493518603</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.51709292740061</v>
+        <v>80.53202493518603</v>
       </c>
       <c r="H2" t="n">
-        <v>80.51709292740061</v>
+        <v>80.53202493518603</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3679815150766</v>
+        <v>292.3667825473038</v>
       </c>
       <c r="L2" t="n">
-        <v>132797.1147162801</v>
+        <v>132795.2111632479</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583144799188845</v>
+        <v>1.583128611419589</v>
       </c>
       <c r="N2" t="n">
-        <v>334661.0798718762</v>
+        <v>334660.2221713129</v>
       </c>
       <c r="O2" t="n">
-        <v>418542.9299618498</v>
+        <v>418541.7275685089</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687460.9792288989</v>
+        <v>-687457.6460262529</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7136117172973</v>
+        <v>717.7135574397223</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.648477798435</v>
+        <v>1006.648414819541</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576823629962</v>
+        <v>1.402576841951442</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980730455668</v>
+        <v>0.9994980646704549</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9173297983218</v>
+        <v>342.9166260128424</v>
       </c>
       <c r="W2" t="n">
-        <v>186165.6303742668</v>
+        <v>186162.9626728423</v>
       </c>
       <c r="X2" t="n">
-        <v>5.371560786970201e-06</v>
+        <v>5.371637761037209e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132731.1468704136</v>
+        <v>132729.2431363895</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534026666523925e-06</v>
+        <v>7.534134726982684e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433277971285641</v>
+        <v>0.003433292028083072</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817216953917716e-05</v>
+        <v>1.817211087541441e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582547624589658</v>
+        <v>0.02582538588512162</v>
       </c>
       <c r="AD2" t="n">
-        <v>132797.1147162801</v>
+        <v>132795.2111632479</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583144799188845</v>
+        <v>1.583128611419589</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583144799188845</v>
+        <v>1.583128611419589</v>
       </c>
       <c r="AG2" t="n">
-        <v>334661.0798718762</v>
+        <v>334660.2221713129</v>
       </c>
       <c r="AH2" t="n">
-        <v>418542.9299618498</v>
+        <v>418541.7275685089</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7136117172973</v>
+        <v>717.7135574397223</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.648477798435</v>
+        <v>1006.648414819541</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9173297983218</v>
+        <v>342.9166260128424</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980730455668</v>
+        <v>0.9994980646704549</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817216953917716e-05</v>
+        <v>1.817211087541441e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582547624589658</v>
+        <v>0.02582538588512162</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2348003029615176</v>
+        <v>0.2348443289890823</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2348003029615176</v>
+        <v>0.2348443289890823</v>
       </c>
       <c r="DH2" t="n">
-        <v>183501.5278322404</v>
+        <v>183534.2742726514</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.736586426105492</v>
+        <v>2.737065942913506</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.1804739465202</v>
+        <v>268.3599122181453</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.3106907214479</v>
+        <v>110.3833379474299</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.4428729145877</v>
+        <v>244.6069524549826</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.7115854202911</v>
+        <v>65.7118573989718</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.1804739465202</v>
+        <v>268.3599122181453</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.3106907214479</v>
+        <v>110.3833379474299</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.4428729145877</v>
+        <v>244.6069524549826</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.7115854202911</v>
+        <v>65.7118573989718</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.7161473026008</v>
+        <v>259.6680857918721</v>
       </c>
       <c r="ED2" t="n">
-        <v>86090.0456385525</v>
+        <v>86032.52134036155</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.155556329883789</v>
+        <v>1.154998165384347</v>
       </c>
       <c r="EF2" t="n">
-        <v>311323.096674402</v>
+        <v>311288.7600657443</v>
       </c>
       <c r="EG2" t="n">
-        <v>385824.0477852926</v>
+        <v>385775.9098455301</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.592532138361</v>
+        <v>3788.598903897941</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598134.6083610876</v>
+        <v>-598002.3153628332</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5412203933764</v>
+        <v>716.5399202221849</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.209708029661</v>
+        <v>1005.208038831217</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863756362554</v>
+        <v>1.402863972351354</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993247308970161</v>
+        <v>0.9993245345872221</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.1785601210177</v>
+        <v>323.148616919474</v>
       </c>
       <c r="EO2" t="n">
-        <v>120691.3664195337</v>
+        <v>120610.7164728071</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.285596805026743e-06</v>
+        <v>8.291137216032211e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>86032.13667196798</v>
+        <v>85974.63392737239</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.162356345760539e-05</v>
+        <v>1.163133769019309e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003863806942179345</v>
+        <v>0.003864520382078089</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.653626066194027e-05</v>
+        <v>1.65337944312892e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02331864745541424</v>
+        <v>0.02331488829202127</v>
       </c>
       <c r="EV2" t="n">
-        <v>86090.0456385525</v>
+        <v>86032.52134036155</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.155556329883789</v>
+        <v>1.154998165384347</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.155556329883789</v>
+        <v>1.154998165384347</v>
       </c>
       <c r="EY2" t="n">
-        <v>311323.096674402</v>
+        <v>311288.7600657443</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385824.0477852926</v>
+        <v>385775.9098455301</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.592532138361</v>
+        <v>3788.598903897941</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5412203933764</v>
+        <v>716.5399202221849</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.209708029661</v>
+        <v>1005.208038831217</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.1785601210177</v>
+        <v>323.148616919474</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993247308970161</v>
+        <v>0.9993245345872221</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.653626066194027e-05</v>
+        <v>1.65337944312892e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02331864745541424</v>
+        <v>0.02331488829202127</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937333099117</v>
+        <v>295.5937263429248</v>
       </c>
       <c r="FK2" t="n">
-        <v>135297.1574118858</v>
+        <v>135294.1527847703</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3652606903</v>
+        <v>336974.3663917394</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.592532150771</v>
+        <v>3788.598903903142</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698099.7794800088</v>
+        <v>-698101.6365350613</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.856196331968</v>
+        <v>717.8561885058064</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777206328807</v>
+        <v>1006.777156996068</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477559535099</v>
+        <v>1.402477506102776</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302623589698</v>
+        <v>0.9995302725861848</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027942245174</v>
+        <v>344.8027870808201</v>
       </c>
       <c r="FV2" t="n">
-        <v>189663.0914371313</v>
+        <v>189658.8741430901</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272507119981622e-06</v>
+        <v>5.272624360542916e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135234.3145511732</v>
+        <v>135231.3126718994</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394572918263259e-06</v>
+        <v>7.394737063790972e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395620405641721</v>
+        <v>0.003395620207416807</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.83292578283518e-05</v>
+        <v>1.832925705699682e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606730014230475</v>
+        <v>0.02606729865941682</v>
       </c>
       <c r="GC2" t="n">
-        <v>135297.1574118858</v>
+        <v>135294.1527847703</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3652606903</v>
+        <v>336974.3663917394</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.592532150771</v>
+        <v>3788.598903903142</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.856196331968</v>
+        <v>717.8561885058064</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777206328807</v>
+        <v>1006.777156996068</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027942245174</v>
+        <v>344.8027870808201</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302623589698</v>
+        <v>0.9995302725861848</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.83292578283518e-05</v>
+        <v>1.832925705699682e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606730014230475</v>
+        <v>0.02606729865941682</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937333099117</v>
+        <v>295.5937263429248</v>
       </c>
       <c r="GR2" t="n">
-        <v>135297.1574118858</v>
+        <v>135294.1527847703</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3652606903</v>
+        <v>336974.3663917394</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.592532150771</v>
+        <v>3788.598903903142</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698099.7794800088</v>
+        <v>-698101.6365350613</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.856196331968</v>
+        <v>717.8561885058064</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777206328807</v>
+        <v>1006.777156996068</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477559535099</v>
+        <v>1.402477506102776</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302623589698</v>
+        <v>0.9995302725861848</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027942245174</v>
+        <v>344.8027870808201</v>
       </c>
       <c r="HC2" t="n">
-        <v>189663.0914371313</v>
+        <v>189658.8741430901</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272507119981622e-06</v>
+        <v>5.272624360542916e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135234.3145511732</v>
+        <v>135231.3126718994</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394572918263259e-06</v>
+        <v>7.394737063790972e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395620405641721</v>
+        <v>0.003395620207416807</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.83292578283518e-05</v>
+        <v>1.832925705699682e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606730014230475</v>
+        <v>0.02606729865941682</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135297.1574118858</v>
+        <v>135294.1527847703</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595295983929516</v>
+        <v>1.595260577487984</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3652606903</v>
+        <v>336974.3663917394</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.592532150771</v>
+        <v>3788.598903903142</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.856196331968</v>
+        <v>717.8561885058064</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777206328807</v>
+        <v>1006.777156996068</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027942245174</v>
+        <v>344.8027870808201</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302623589698</v>
+        <v>0.9995302725861848</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.83292578283518e-05</v>
+        <v>1.832925705699682e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606730014230475</v>
+        <v>0.02606729865941682</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8298213651490282</v>
+        <v>0.8304535379924538</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8298213651490282</v>
+        <v>0.8304535379924538</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490251.244736217</v>
+        <v>490415.4475756913</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.736586426174254</v>
+        <v>2.737065943081671</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01595362529230444</v>
+        <v>0.01595401972262802</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.786050812204584e-07</v>
+        <v>-1.786755949196041e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379133206950267</v>
+        <v>0.01379134453101148</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02518310637913935</v>
+        <v>0.0251829021128309</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05492788513586525</v>
+        <v>0.05492808769087547</v>
       </c>
       <c r="II2" t="n">
-        <v>-1.011878081325079e-12</v>
+        <v>-2.750672606355309e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384354.2637046606</v>
+        <v>384304.7525386651</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.1804739465202</v>
+        <v>268.3599122181453</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.3106907214479</v>
+        <v>110.3833379474299</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.4428729145877</v>
+        <v>244.6069524549826</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.7115854202911</v>
+        <v>65.7118573989718</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.7627943012033</v>
+        <v>135.9174986889387</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.3106907214479</v>
+        <v>110.3833379474299</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.13967291458766</v>
+        <v>79.3037524549826</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.65661149414871</v>
+        <v>35.69496007488264</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.7161473028007</v>
+        <v>259.6680857917721</v>
       </c>
       <c r="IV2" t="n">
-        <v>86090.04563869581</v>
+        <v>86032.52134025063</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.155556329884821</v>
+        <v>1.154998165383304</v>
       </c>
       <c r="IX2" t="n">
-        <v>311323.0966745449</v>
+        <v>311288.7600656727</v>
       </c>
       <c r="IY2" t="n">
-        <v>385824.047785493</v>
+        <v>385775.9098454297</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.592532138655</v>
+        <v>3788.598903897925</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598134.6083617207</v>
+        <v>-598002.3153625502</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5412203933818</v>
+        <v>716.5399202221824</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.209708029666</v>
+        <v>1005.208038831213</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402863756362551</v>
+        <v>1.402863972351355</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993247308970177</v>
+        <v>0.9993245345872217</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.1785601211422</v>
+        <v>323.1486169194117</v>
       </c>
       <c r="JG2" t="n">
-        <v>120691.3664197344</v>
+        <v>120610.7164726516</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.285596805012959e-06</v>
+        <v>8.291137216042899e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>86032.13667211132</v>
+        <v>85974.63392726149</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.162356345758603e-05</v>
+        <v>1.163133769020809e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003863806942176363</v>
+        <v>0.003864520382079576</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.653626066195052e-05</v>
+        <v>1.653379443128406e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02331864745542985</v>
+        <v>0.02331488829201344</v>
       </c>
       <c r="JN2" t="n">
-        <v>86090.04563869581</v>
+        <v>86032.52134025063</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.155556329884821</v>
+        <v>1.154998165383304</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.155556329884821</v>
+        <v>1.154998165383304</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311323.0966745449</v>
+        <v>311288.7600656727</v>
       </c>
       <c r="JR2" t="n">
-        <v>385824.047785493</v>
+        <v>385775.9098454297</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.592532138655</v>
+        <v>3788.598903897925</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5412203933818</v>
+        <v>716.5399202221824</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.209708029666</v>
+        <v>1005.208038831213</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.1785601211422</v>
+        <v>323.1486169194117</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993247308970177</v>
+        <v>0.9993245345872217</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.653626066195052e-05</v>
+        <v>1.653379443128406e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02331864745542985</v>
+        <v>0.02331488829201344</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937333100192</v>
+        <v>295.5937263430249</v>
       </c>
       <c r="KC2" t="n">
-        <v>135297.1574153073</v>
+        <v>135294.1527849379</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595295983969294</v>
+        <v>1.595260577489419</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3652607605</v>
+        <v>336974.3663918112</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.592532143855</v>
+        <v>3788.598903903126</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698099.7794782716</v>
+        <v>-698101.6365353354</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561963319811</v>
+        <v>717.856188505811</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777206328866</v>
+        <v>1006.777156996073</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477559535155</v>
+        <v>1.402477506102775</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302623589594</v>
+        <v>0.9995302725861854</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027942245835</v>
+        <v>344.8027870808786</v>
       </c>
       <c r="KN2" t="n">
-        <v>189663.0914419333</v>
+        <v>189658.8741433251</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.27250711984813e-06</v>
+        <v>5.272624360536383e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135234.3145545917</v>
+        <v>135231.312672067</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394572918076337e-06</v>
+        <v>7.394737063781805e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395620405640789</v>
+        <v>0.00339562020741566</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925782835751e-05</v>
+        <v>1.83292570570017e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606730014231387</v>
+        <v>0.02606729865942434</v>
       </c>
       <c r="KU2" t="n">
-        <v>135297.1574153073</v>
+        <v>135294.1527849379</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595295983969294</v>
+        <v>1.595260577489419</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595295983969294</v>
+        <v>1.595260577489419</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3652607605</v>
+        <v>336974.3663918112</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.592532143855</v>
+        <v>3788.598903903126</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561963319811</v>
+        <v>717.856188505811</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777206328866</v>
+        <v>1006.777156996073</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027942245835</v>
+        <v>344.8027870808786</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302623589594</v>
+        <v>0.9995302725861854</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925782835751e-05</v>
+        <v>1.83292570570017e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606730014231387</v>
+        <v>0.02606729865942434</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.9149995852774</v>
+        <v>268.8879241039236</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97217.5129319527</v>
+        <v>97181.17776279108</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.260223877119328</v>
+        <v>1.259879872160338</v>
       </c>
       <c r="LL2" t="n">
-        <v>317896.7664451199</v>
+        <v>317877.4201683851</v>
       </c>
       <c r="LM2" t="n">
-        <v>395039.8159437348</v>
+        <v>395012.6930703585</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.592532138655</v>
+        <v>3788.598903897925</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623769.5432651169</v>
+        <v>-623695.8014611547</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8101497221701</v>
+        <v>716.8092871077006</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.542677166312</v>
+        <v>1005.541587959787</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402801951892077</v>
+        <v>1.402802120515362</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.999368245041217</v>
+        <v>0.9993681217857321</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8592385353064</v>
+        <v>328.8426615507633</v>
       </c>
       <c r="LU2" t="n">
-        <v>136291.1944022037</v>
+        <v>136240.2547065075</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.337231171728809e-06</v>
+        <v>7.339974533622439e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97156.40487837671</v>
+        <v>97120.08038343681</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029268220918456e-05</v>
+        <v>1.029653184029431e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003731886927831817</v>
+        <v>0.003732261706970734</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.70049689617636e-05</v>
+        <v>1.700359847851587e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.0240341126698392</v>
+        <v>0.02403201725569296</v>
       </c>
       <c r="MB2" t="n">
-        <v>97217.5129319527</v>
+        <v>97181.17776279108</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.260223877119328</v>
+        <v>1.259879872160338</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.260223877119328</v>
+        <v>1.259879872160338</v>
       </c>
       <c r="ME2" t="n">
-        <v>317896.7664451199</v>
+        <v>317877.4201683851</v>
       </c>
       <c r="MF2" t="n">
-        <v>395039.8159437348</v>
+        <v>395012.6930703585</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.592532138655</v>
+        <v>3788.598903897925</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8101497221701</v>
+        <v>716.8092871077006</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.542677166312</v>
+        <v>1005.541587959787</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8592385353064</v>
+        <v>328.8426615507633</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.999368245041217</v>
+        <v>0.9993681217857321</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.70049689617636e-05</v>
+        <v>1.700359847851587e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.0240341126698392</v>
+        <v>0.02403201725569296</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8298213651487085</v>
+        <v>0.8304535379926139</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.420086017619217</v>
+        <v>0.4206036837930657</v>
       </c>
       <c r="MR2" t="n">
-        <v>247234.4528919992</v>
+        <v>247433.5269535307</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.736586426176698</v>
+        <v>2.737065943079198</v>
       </c>
       <c r="MT2" t="n">
-        <v>381377.2419785146</v>
+        <v>381350.1191053325</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.2735091932223</v>
+        <v>135.2343262577869</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.0428316953208</v>
+        <v>123.0654110216706</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.20839668453249</v>
+        <v>-56.06449507901439</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.55185721696588</v>
+        <v>-24.49242669086884</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.390855986032</v>
+        <v>253.2760387690242</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.0428316953208</v>
+        <v>123.0654110216706</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.5115966845325</v>
+        <v>-221.3676950790144</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.94918436558319</v>
+        <v>-60.9289117554675</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8531194511668</v>
+        <v>236.8550748439097</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999991179</v>
+        <v>59999.99999764899</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831455139389341</v>
+        <v>0.8831381998061369</v>
       </c>
       <c r="NG2" t="n">
-        <v>294997.379119191</v>
+        <v>294998.7806209673</v>
       </c>
       <c r="NH2" t="n">
-        <v>362936.3529948603</v>
+        <v>362938.3171632887</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.909996458184</v>
+        <v>3799.918289204705</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537084.1832999324</v>
+        <v>-537091.6136270332</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0324975849851</v>
+        <v>716.0325228567427</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487937157541</v>
+        <v>1004.487934518018</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852441118875</v>
+        <v>1.402852387920076</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718290085967</v>
+        <v>0.9992718552126804</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6083020020807</v>
+        <v>308.6095781320052</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96984331112</v>
+        <v>84109.96885598845</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919698655112e-05</v>
+        <v>1.188919712611215e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39126252466</v>
+        <v>59956.39283238714</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878901552641e-05</v>
+        <v>1.667878857881893e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235436775310654</v>
+        <v>0.004235401493051946</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534191315934803e-05</v>
+        <v>1.534201683290518e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150484610157146</v>
+        <v>0.02150500262387672</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999991179</v>
+        <v>59999.99999764899</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831455139389341</v>
+        <v>0.8831381998061369</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831455139389341</v>
+        <v>0.8831381998061369</v>
       </c>
       <c r="NZ2" t="n">
-        <v>294997.379119191</v>
+        <v>294998.7806209673</v>
       </c>
       <c r="OA2" t="n">
-        <v>362936.3529948603</v>
+        <v>362938.3171632887</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.909996458184</v>
+        <v>3799.918289204705</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0324975849851</v>
+        <v>716.0325228567427</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487937157541</v>
+        <v>1004.487934518018</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6083020020807</v>
+        <v>308.6095781320052</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718290085967</v>
+        <v>0.9992718552126804</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534191315934803e-05</v>
+        <v>1.534201683290518e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150484610157146</v>
+        <v>0.02150500262387672</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9899579031996</v>
+        <v>245.9866206916279</v>
       </c>
       <c r="OL2" t="n">
-        <v>68475.90311742813</v>
+        <v>68470.68678435647</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9704399109111708</v>
+        <v>0.9703791407884995</v>
       </c>
       <c r="ON2" t="n">
-        <v>301524.1004803301</v>
+        <v>301521.7216281602</v>
       </c>
       <c r="OO2" t="n">
-        <v>372085.8141397923</v>
+        <v>372082.4786624874</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.909996466753</v>
+        <v>3799.918289203846</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562653.8859270118</v>
+        <v>-562646.5802030789</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2042342647987</v>
+        <v>716.2041572021736</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719346183358</v>
+        <v>1004.719204882644</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402839159719193</v>
+        <v>1.40283911337173</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991345094357</v>
+        <v>0.9992991436744341</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5115752501726</v>
+        <v>314.5094394893254</v>
       </c>
       <c r="OW2" t="n">
-        <v>95993.51993853279</v>
+        <v>95986.20506338765</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041736984580133e-05</v>
+        <v>1.041816372821091e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68428.02988030919</v>
+        <v>68422.81780459087</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.4613894360968e-05</v>
+        <v>1.461500756744491e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078428943620566</v>
+        <v>0.004078483783255905</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582413100514136e-05</v>
+        <v>1.582395583067693e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223531517182878</v>
+        <v>0.02223504910976107</v>
       </c>
       <c r="PD2" t="n">
-        <v>68475.90311742813</v>
+        <v>68470.68678435647</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9704399109111708</v>
+        <v>0.9703791407884995</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9704399109111708</v>
+        <v>0.9703791407884995</v>
       </c>
       <c r="PG2" t="n">
-        <v>301524.1004803301</v>
+        <v>301521.7216281602</v>
       </c>
       <c r="PH2" t="n">
-        <v>372085.8141397923</v>
+        <v>372082.4786624874</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.909996466753</v>
+        <v>3799.918289203846</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2042342647987</v>
+        <v>716.2041572021736</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719346183358</v>
+        <v>1004.719204882644</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5115752501726</v>
+        <v>314.5094394893254</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991345094357</v>
+        <v>0.9992991436744341</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582413100514136e-05</v>
+        <v>1.582395583067693e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223531517182878</v>
+        <v>0.02223504910976107</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.9044324051455</v>
+        <v>268.8773570168483</v>
       </c>
       <c r="PS2" t="n">
-        <v>93456.81904406747</v>
+        <v>93421.2634215057</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.21149255160097</v>
+        <v>1.211153726529607</v>
       </c>
       <c r="PU2" t="n">
-        <v>317897.9309849165</v>
+        <v>317878.5841829724</v>
       </c>
       <c r="PV2" t="n">
-        <v>395039.815943735</v>
+        <v>395012.6930703648</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.909996465062</v>
+        <v>3799.918289202154</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626772.8248463412</v>
+        <v>-626699.2934102942</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.797788823467</v>
+        <v>716.7969255530386</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.465250387746</v>
+        <v>1005.464158410027</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718125062984</v>
+        <v>1.40271829100588</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993924304690743</v>
+        <v>0.9993923161032743</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8508699922281</v>
+        <v>328.8342954662241</v>
       </c>
       <c r="QD2" t="n">
-        <v>131014.3114311309</v>
+        <v>130964.4673385018</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.63275392647208e-06</v>
+        <v>7.635658895288869e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93400.31264317498</v>
+        <v>93364.76766449523</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.070660227680804e-05</v>
+        <v>1.071067839630345e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731523193883241</v>
+        <v>0.003731897902562128</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700386466146772e-05</v>
+        <v>1.700249424984872e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02403196740238911</v>
+        <v>0.02402987210294949</v>
       </c>
       <c r="QK2" t="n">
-        <v>93456.81904406747</v>
+        <v>93421.2634215057</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.21149255160097</v>
+        <v>1.211153726529607</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.21149255160097</v>
+        <v>1.211153726529607</v>
       </c>
       <c r="QN2" t="n">
-        <v>317897.9309849165</v>
+        <v>317878.5841829724</v>
       </c>
       <c r="QO2" t="n">
-        <v>395039.815943735</v>
+        <v>395012.6930703648</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.909996465062</v>
+        <v>3799.918289202154</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.797788823467</v>
+        <v>716.7969255530386</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.465250387746</v>
+        <v>1005.464158410027</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8508699922281</v>
+        <v>328.8342954662241</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993924304690743</v>
+        <v>0.9993923161032743</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700386466146772e-05</v>
+        <v>1.700249424984872e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02403196740238911</v>
+        <v>0.02402987210294949</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.438333992687955</v>
+        <v>0.4382052140972163</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8210759540238278</v>
+        <v>0.8207005119610624</v>
       </c>
       <c r="RA2" t="n">
-        <v>380117.703734906</v>
+        <v>379939.7495405625</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.736586426036648</v>
+        <v>2.737065942821826</v>
       </c>
       <c r="RC2" t="n">
-        <v>381377.2419785146</v>
+        <v>381350.1191053325</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02434338147346002</v>
+        <v>0.02438241703276283</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001878260472335808</v>
+        <v>0.001899441191851519</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189985195859623</v>
+        <v>0.01189653595440938</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03191600446345273</v>
+        <v>0.03194002581011251</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04236690797792522</v>
+        <v>0.04238224443048939</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11240440634577</v>
+        <v>0.1125006644196256</v>
       </c>
       <c r="RJ2" t="n">
-        <v>1.497173773845617e-10</v>
+        <v>1.071653876749679e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360270.8205827872</v>
+        <v>360272.3128478415</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.60702140400458</v>
+        <v>80.61892404716231</v>
       </c>
       <c r="D3" t="n">
-        <v>80.60702140400458</v>
+        <v>80.61892404716231</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.60702140400458</v>
+        <v>80.61892404716231</v>
       </c>
       <c r="H3" t="n">
-        <v>80.60702140400458</v>
+        <v>80.61892404716231</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3607573311852</v>
+        <v>292.3598005569163</v>
       </c>
       <c r="L3" t="n">
-        <v>132785.6454656261</v>
+        <v>132784.1265260234</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583047263950869</v>
+        <v>1.583034346610858</v>
       </c>
       <c r="N3" t="n">
-        <v>334655.9119384315</v>
+        <v>334655.2274950678</v>
       </c>
       <c r="O3" t="n">
-        <v>418535.6851387768</v>
+        <v>418534.7256312283</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687440.8955614059</v>
+        <v>-687438.2356709752</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7132846903609</v>
+        <v>717.7132413812249</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.64809834323</v>
+        <v>1006.648048090489</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576934015542</v>
+        <v>1.402576948633711</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994980225844324</v>
+        <v>0.9994980159016477</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9130892321078</v>
+        <v>342.912527605574</v>
       </c>
       <c r="W3" t="n">
-        <v>186149.5569906968</v>
+        <v>186147.428298818</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372024603045266e-06</v>
+        <v>5.372086034918107e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132719.6765297968</v>
+        <v>132718.1574459422</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.534677797195287e-06</v>
+        <v>7.534764038653211e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433362669955797</v>
+        <v>0.003433373887799926</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817181606879721e-05</v>
+        <v>1.817176925474835e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582493179007445</v>
+        <v>0.02582485968177317</v>
       </c>
       <c r="AD3" t="n">
-        <v>132785.6454656261</v>
+        <v>132784.1265260234</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583047263950869</v>
+        <v>1.583034346610858</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583047263950869</v>
+        <v>1.583034346610858</v>
       </c>
       <c r="AG3" t="n">
-        <v>334655.9119384315</v>
+        <v>334655.2274950678</v>
       </c>
       <c r="AH3" t="n">
-        <v>418535.6851387768</v>
+        <v>418534.7256312283</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7132846903609</v>
+        <v>717.7132413812249</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.64809834323</v>
+        <v>1006.648048090489</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9130892321078</v>
+        <v>342.912527605574</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994980225844324</v>
+        <v>0.9994980159016477</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817181606879721e-05</v>
+        <v>1.817176925474835e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582493179007445</v>
+        <v>0.02582485968177317</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2350654551697327</v>
+        <v>0.2351005505984082</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2350654551697327</v>
+        <v>0.2351005505984082</v>
       </c>
       <c r="DH3" t="n">
-        <v>183698.7335345051</v>
+        <v>183724.8331137808</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.739474097910213</v>
+        <v>2.739856258959436</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>269.898436134024</v>
+        <v>270.0096461107576</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.941233966115</v>
+        <v>110.9901773357499</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.043102796375</v>
+        <v>246.1430265675535</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.72930943242591</v>
+        <v>65.72855740543193</v>
       </c>
       <c r="DY3" t="n">
-        <v>269.898436134024</v>
+        <v>270.0096461107576</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.941233966115</v>
+        <v>110.9901773357499</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.043102796375</v>
+        <v>246.1430265675535</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.72930943242591</v>
+        <v>65.72855740543193</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.2546785017714</v>
+        <v>259.224704315436</v>
       </c>
       <c r="ED3" t="n">
-        <v>85538.65462874492</v>
+        <v>85502.96502196143</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.1502010580337</v>
+        <v>1.149854237707444</v>
       </c>
       <c r="EF3" t="n">
-        <v>310993.4114294974</v>
+        <v>310971.9971300673</v>
       </c>
       <c r="EG3" t="n">
-        <v>385361.8481747874</v>
+        <v>385331.826591961</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.654478387212</v>
+        <v>3788.65838254207</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596864.5505737858</v>
+        <v>-596782.0223747049</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.52878238157</v>
+        <v>716.5279782005456</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.193723732375</v>
+        <v>1005.19268997852</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402865800298143</v>
+        <v>1.402865932050432</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993228550508475</v>
+        <v>0.9993227334871643</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8909420291927</v>
+        <v>322.8722512802587</v>
       </c>
       <c r="EO3" t="n">
-        <v>119918.3065323338</v>
+        <v>119868.2690363323</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.339010355607118e-06</v>
+        <v>8.342491370229914e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85480.95370693921</v>
+        <v>85445.27762616101</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.169851243621328e-05</v>
+        <v>1.170339693172028e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003870667995244213</v>
+        <v>0.003871114496165203</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.651257339008972e-05</v>
+        <v>1.651103424345236e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02328254445730767</v>
+        <v>0.02328019875930381</v>
       </c>
       <c r="EV3" t="n">
-        <v>85538.65462874492</v>
+        <v>85502.96502196143</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.1502010580337</v>
+        <v>1.149854237707444</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.1502010580337</v>
+        <v>1.149854237707444</v>
       </c>
       <c r="EY3" t="n">
-        <v>310993.4114294974</v>
+        <v>310971.9971300673</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385361.8481747874</v>
+        <v>385331.826591961</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.654478387212</v>
+        <v>3788.65838254207</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.52878238157</v>
+        <v>716.5279782005456</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.193723732375</v>
+        <v>1005.19268997852</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8909420291927</v>
+        <v>322.8722512802587</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993228550508475</v>
+        <v>0.9993227334871643</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.651257339008972e-05</v>
+        <v>1.651103424345236e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02328254445730767</v>
+        <v>0.02328019875930381</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936655843835</v>
+        <v>295.593661316462</v>
       </c>
       <c r="FK3" t="n">
-        <v>135267.9492282449</v>
+        <v>135266.1085936922</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493703</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.654478392414</v>
+        <v>3788.658382554516</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698117.8338121141</v>
+        <v>-698118.9716880048</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8561202533251</v>
+        <v>717.8561154590155</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540516</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402477040115629</v>
+        <v>1.402477007382959</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995303617788157</v>
+        <v>0.999530368044061</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047053</v>
       </c>
       <c r="FV3" t="n">
-        <v>189622.0948463055</v>
+        <v>189619.5113333941</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273647044193509e-06</v>
+        <v>5.273718896162396e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135205.1330770248</v>
+        <v>135203.2941254607</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396168897155047e-06</v>
+        <v>7.396269495268798e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618478668754</v>
+        <v>0.003395618357235088</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748484e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873156</v>
       </c>
       <c r="GC3" t="n">
-        <v>135267.9492282449</v>
+        <v>135266.1085936922</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493703</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.654478392414</v>
+        <v>3788.658382554516</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8561202533251</v>
+        <v>717.8561154590155</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540516</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047053</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995303617788157</v>
+        <v>0.999530368044061</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748484e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873156</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936655843835</v>
+        <v>295.593661316462</v>
       </c>
       <c r="GR3" t="n">
-        <v>135267.9492282449</v>
+        <v>135266.1085936922</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493703</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.654478392414</v>
+        <v>3788.658382554516</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698117.8338121141</v>
+        <v>-698118.9716880048</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8561202533251</v>
+        <v>717.8561154590155</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540516</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402477040115629</v>
+        <v>1.402477007382959</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995303617788157</v>
+        <v>0.999530368044061</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047053</v>
       </c>
       <c r="HC3" t="n">
-        <v>189622.0948463055</v>
+        <v>189619.5113333941</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273647044193509e-06</v>
+        <v>5.273718896162396e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135205.1330770248</v>
+        <v>135203.2941254607</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396168897155047e-06</v>
+        <v>7.396269495268798e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618478668754</v>
+        <v>0.003395618357235088</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748484e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873156</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135267.9492282449</v>
+        <v>135266.1085936922</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594951795467776</v>
+        <v>1.594930105476021</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493703</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.654478392414</v>
+        <v>3788.658382554516</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8561202533251</v>
+        <v>717.8561154590155</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540516</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047053</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995303617788157</v>
+        <v>0.999530368044061</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748484e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873156</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8358811010239562</v>
+        <v>0.8362739288994659</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8358811010239562</v>
+        <v>0.8362739288994659</v>
       </c>
       <c r="HZ3" t="n">
-        <v>491809.72218663</v>
+        <v>491909.8639632531</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.739474097879108</v>
+        <v>2.739856258958207</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01597187822308748</v>
+        <v>0.01597125674044328</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.792898703213425e-07</v>
+        <v>-1.793336701803399e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379193482753929</v>
+        <v>0.01379191296188898</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02517482432426621</v>
+        <v>0.02517508639432077</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05493845808502265</v>
+        <v>0.05493807676298285</v>
       </c>
       <c r="II3" t="n">
-        <v>-1.593725151849412e-13</v>
+        <v>-2.823019595865617e-13</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383878.7067549354</v>
+        <v>383847.8503608659</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>269.898436134024</v>
+        <v>270.0096461107576</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.941233966115</v>
+        <v>110.9901773357499</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.043102796375</v>
+        <v>246.1430265675535</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.72930943242591</v>
+        <v>65.72855740543193</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.2111121501912</v>
+        <v>137.3094935701582</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.941233966115</v>
+        <v>110.9901773357499</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.73990279637502</v>
+        <v>80.83982656755347</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.04607188984437</v>
+        <v>36.06776715177219</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.2546785016845</v>
+        <v>259.2247043155354</v>
       </c>
       <c r="IV3" t="n">
-        <v>85538.65463079124</v>
+        <v>85502.9650240645</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.150201058061621</v>
+        <v>1.149854237735303</v>
       </c>
       <c r="IX3" t="n">
-        <v>310993.4114294298</v>
+        <v>310971.9971301333</v>
       </c>
       <c r="IY3" t="n">
-        <v>385361.8481746936</v>
+        <v>385331.8265920545</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.654478379987</v>
+        <v>3788.658382535375</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596864.5505716774</v>
+        <v>-596782.0223732527</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5287823815753</v>
+        <v>716.5279782005553</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.19372373242</v>
+        <v>1005.192689978568</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402865800298196</v>
+        <v>1.40286593205048</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993228550508302</v>
+        <v>0.999322733487149</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8909420291391</v>
+        <v>322.8722512803213</v>
       </c>
       <c r="JG3" t="n">
-        <v>119918.3065352049</v>
+        <v>119868.269039283</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.339010355407459e-06</v>
+        <v>8.342491370024555e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85480.95370898266</v>
+        <v>85445.27762826138</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.169851243593362e-05</v>
+        <v>1.170339693143259e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003870667995245846</v>
+        <v>0.003871114496164034</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.651257339008559e-05</v>
+        <v>1.651103424345777e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02328254445730165</v>
+        <v>0.02328019875931231</v>
       </c>
       <c r="JN3" t="n">
-        <v>85538.65463079124</v>
+        <v>85502.9650240645</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.150201058061621</v>
+        <v>1.149854237735303</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.150201058061621</v>
+        <v>1.149854237735303</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310993.4114294298</v>
+        <v>310971.9971301333</v>
       </c>
       <c r="JR3" t="n">
-        <v>385361.8481746936</v>
+        <v>385331.8265920545</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.654478379987</v>
+        <v>3788.658382535375</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5287823815753</v>
+        <v>716.5279782005553</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.19372373242</v>
+        <v>1005.192689978568</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8909420291391</v>
+        <v>322.8722512803213</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993228550508302</v>
+        <v>0.999322733487149</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.651257339008559e-05</v>
+        <v>1.651103424345777e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02328254445730165</v>
+        <v>0.02328019875931231</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936655843835</v>
+        <v>295.5936613164693</v>
       </c>
       <c r="KC3" t="n">
-        <v>135267.9492282357</v>
+        <v>135266.1085968484</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594951795467666</v>
+        <v>1.594930105513214</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493692</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.654478392433</v>
+        <v>3788.658382547821</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698117.83381212</v>
+        <v>-698118.9716860536</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561202533252</v>
+        <v>717.8561154590236</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540568</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402477040115629</v>
+        <v>1.402477007383015</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303617788158</v>
+        <v>0.9995303680440504</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047128</v>
       </c>
       <c r="KN3" t="n">
-        <v>189622.0948462924</v>
+        <v>189619.5113378242</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.273647044193871e-06</v>
+        <v>5.273718896039185e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135205.1330770155</v>
+        <v>135203.294128614</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396168897155554e-06</v>
+        <v>7.396269495096296e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618478668753</v>
+        <v>0.003395618357235296</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748565e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873312</v>
       </c>
       <c r="KU3" t="n">
-        <v>135267.9492282357</v>
+        <v>135266.1085968484</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594951795467666</v>
+        <v>1.594930105513214</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594951795467666</v>
+        <v>1.594930105513214</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.376256448</v>
+        <v>336974.3769493692</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.654478392433</v>
+        <v>3788.658382547821</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561202533252</v>
+        <v>717.8561154590236</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776726761772</v>
+        <v>1006.776696540568</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8027247808837</v>
+        <v>344.8027204047128</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303617788158</v>
+        <v>0.9995303680440504</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832925033001342e-05</v>
+        <v>1.832924985748565e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.0260672857271425</v>
+        <v>0.02606728481873312</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6509379601322</v>
+        <v>268.6344489580171</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96863.64303726044</v>
+        <v>96841.56597368277</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.25687238224865</v>
+        <v>1.256663141321694</v>
       </c>
       <c r="LL3" t="n">
-        <v>317708.0866336505</v>
+        <v>317696.3048295946</v>
       </c>
       <c r="LM3" t="n">
-        <v>394775.2928236402</v>
+        <v>394758.7751045083</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.65447839386</v>
+        <v>3788.658382549249</v>
       </c>
       <c r="LO3" t="n">
-        <v>-623050.2864037255</v>
+        <v>-623005.3817817816</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8017536793772</v>
+        <v>716.8012305895703</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.532072947833</v>
+        <v>1005.53141180367</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402803589397473</v>
+        <v>1.402803690747878</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993670450844371</v>
+        <v>0.9993669704223387</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6975309792321</v>
+        <v>328.6874307076628</v>
       </c>
       <c r="LU3" t="n">
-        <v>135795.0899722816</v>
+        <v>135764.1392000574</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.36403650679947e-06</v>
+        <v>7.365715319908112e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96802.63937063904</v>
+        <v>96780.56886753507</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033029684419232e-05</v>
+        <v>1.033265263576529e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.00373554529948466</v>
+        <v>0.003735773978470536</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.699160059245438e-05</v>
+        <v>1.699076564648945e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02401367376731237</v>
+        <v>0.0240123972753431</v>
       </c>
       <c r="MB3" t="n">
-        <v>96863.64303726044</v>
+        <v>96841.56597368277</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.25687238224865</v>
+        <v>1.256663141321694</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.25687238224865</v>
+        <v>1.256663141321694</v>
       </c>
       <c r="ME3" t="n">
-        <v>317708.0866336505</v>
+        <v>317696.3048295946</v>
       </c>
       <c r="MF3" t="n">
-        <v>394775.2928236402</v>
+        <v>394758.7751045083</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.65447839386</v>
+        <v>3788.658382549249</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8017536793772</v>
+        <v>716.8012305895703</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.532072947833</v>
+        <v>1005.53141180367</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6975309792321</v>
+        <v>328.6874307076628</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993670450844371</v>
+        <v>0.9993669704223387</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.699160059245438e-05</v>
+        <v>1.699076564648945e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02401367376731237</v>
+        <v>0.0240123972753431</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.835881101024095</v>
+        <v>0.8362739288993039</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4249456837900665</v>
+        <v>0.4252749904201107</v>
       </c>
       <c r="MR3" t="n">
-        <v>249070.732375898</v>
+        <v>249197.3896456782</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.739474097945608</v>
+        <v>2.739856259024589</v>
       </c>
       <c r="MT3" t="n">
-        <v>381112.7188584201</v>
+        <v>381096.2011392881</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5752883564967</v>
+        <v>142.5519907092413</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.0782382606417</v>
+        <v>127.0966684643577</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.6439031193953</v>
+        <v>-64.55623068634611</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.96215513519312</v>
+        <v>-26.92738856692169</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.7252345558573</v>
+        <v>262.6574213879936</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.0782382606417</v>
+        <v>127.0966684643577</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.9471031193953</v>
+        <v>-229.8594306863461</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.07315279139846</v>
+        <v>-61.0603835301778</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1825947770358</v>
+        <v>234.183885282977</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.0000017863</v>
+        <v>57500.00000204139</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8560032809028244</v>
+        <v>0.8559985489399335</v>
       </c>
       <c r="NG3" t="n">
-        <v>293090.3786502051</v>
+        <v>293091.3035313283</v>
       </c>
       <c r="NH3" t="n">
-        <v>360263.0183872178</v>
+        <v>360264.31459922</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.766771145896</v>
+        <v>3800.772306177797</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529810.4062220644</v>
+        <v>-529815.311137437</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.987578425242</v>
+        <v>715.9875938123821</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421571279903</v>
+        <v>1004.421568299363</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847760975195</v>
+        <v>1.402847726664049</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670603518329</v>
+        <v>0.9992670776643167</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.861594038437</v>
+        <v>306.8624411094717</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72538187167</v>
+        <v>80604.72480726693</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622054429707e-05</v>
+        <v>1.240622063273696e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92781238</v>
+        <v>57457.92880809934</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403871273161e-05</v>
+        <v>1.740403841112767e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283597427671613</v>
+        <v>0.00428357361165203</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.519960961214012e-05</v>
+        <v>1.519967833371279e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128968738018862</v>
+        <v>0.02128979103999978</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.0000017863</v>
+        <v>57500.00000204139</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8560032809028244</v>
+        <v>0.8559985489399335</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8560032809028244</v>
+        <v>0.8559985489399335</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293090.3786502051</v>
+        <v>293091.3035313283</v>
       </c>
       <c r="OA3" t="n">
-        <v>360263.0183872178</v>
+        <v>360264.31459922</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.766771145896</v>
+        <v>3800.772306177797</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.987578425242</v>
+        <v>715.9875938123821</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421571279903</v>
+        <v>1004.421568299363</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.861594038437</v>
+        <v>306.8624411094717</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670603518329</v>
+        <v>0.9992670776643167</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.519960961214012e-05</v>
+        <v>1.519967833371279e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128968738018862</v>
+        <v>0.02128979103999978</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3327408007092</v>
+        <v>244.3307141711414</v>
       </c>
       <c r="OL3" t="n">
-        <v>66679.99444866774</v>
+        <v>66676.78109231117</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9514009196657728</v>
+        <v>0.9513629553584527</v>
       </c>
       <c r="ON3" t="n">
-        <v>300340.7596212378</v>
+        <v>300339.315271311</v>
       </c>
       <c r="OO3" t="n">
-        <v>370426.8748123944</v>
+        <v>370424.8496267967</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.7667711643</v>
+        <v>3800.772306186472</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558224.8875304409</v>
+        <v>-558220.5623456402</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1697474248853</v>
+        <v>716.1697015763749</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.66965233833</v>
+        <v>1004.669565289735</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837324462249</v>
+        <v>1.402837292723132</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992958672658795</v>
+        <v>0.9992958743515503</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4491208028272</v>
+        <v>313.4478194937314</v>
       </c>
       <c r="OW3" t="n">
-        <v>93475.47461481228</v>
+        <v>93470.96849904314</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069799328776597e-05</v>
+        <v>1.06985090243313e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66633.15338479773</v>
+        <v>66629.9427481009</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500754428092471e-05</v>
+        <v>1.500826743586692e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105996775631589</v>
+        <v>0.0041060305113097</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573715257579102e-05</v>
+        <v>1.573704590549379e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.0221033616027381</v>
+        <v>0.02210319966344359</v>
       </c>
       <c r="PD3" t="n">
-        <v>66679.99444866774</v>
+        <v>66676.78109231117</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9514009196657728</v>
+        <v>0.9513629553584527</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9514009196657728</v>
+        <v>0.9513629553584527</v>
       </c>
       <c r="PG3" t="n">
-        <v>300340.7596212378</v>
+        <v>300339.315271311</v>
       </c>
       <c r="PH3" t="n">
-        <v>370426.8748123944</v>
+        <v>370424.8496267967</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.7667711643</v>
+        <v>3800.772306186472</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1697474248853</v>
+        <v>716.1697015763749</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.66965233833</v>
+        <v>1004.669565289735</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4491208028272</v>
+        <v>313.4478194937314</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992958672658795</v>
+        <v>0.9992958743515503</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573715257579102e-05</v>
+        <v>1.573704590549379e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.0221033616027381</v>
+        <v>0.02210319966344359</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6396634129427</v>
+        <v>268.6231741303038</v>
       </c>
       <c r="PS3" t="n">
-        <v>92858.99739986543</v>
+        <v>92837.3050105209</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204928692900673</v>
+        <v>1.204721243394021</v>
       </c>
       <c r="PU3" t="n">
-        <v>317709.3237358294</v>
+        <v>317697.541628443</v>
       </c>
       <c r="PV3" t="n">
-        <v>394775.2928234459</v>
+        <v>394758.7751043079</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.76677116254</v>
+        <v>3800.772306177797</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626261.413292756</v>
+        <v>-626216.7459277265</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7885573568891</v>
+        <v>716.7880334379867</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.449427526673</v>
+        <v>1005.448762071582</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714115909163</v>
+        <v>1.402714212804403</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993929447870358</v>
+        <v>0.9993928766890428</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.6886272981856</v>
+        <v>328.6785283534917</v>
       </c>
       <c r="QD3" t="n">
-        <v>130175.9337777522</v>
+        <v>130145.5239180711</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.681911479177772e-06</v>
+        <v>7.683706437952624e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92802.89711305805</v>
+        <v>92781.21140433534</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.077552566900729e-05</v>
+        <v>1.077804422753283e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735156447194046</v>
+        <v>0.003735385068500551</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.699042302867687e-05</v>
+        <v>1.698958809359028e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02401138592637005</v>
+        <v>0.02401010943963927</v>
       </c>
       <c r="QK3" t="n">
-        <v>92858.99739986543</v>
+        <v>92837.3050105209</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204928692900673</v>
+        <v>1.204721243394021</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204928692900673</v>
+        <v>1.204721243394021</v>
       </c>
       <c r="QN3" t="n">
-        <v>317709.3237358294</v>
+        <v>317697.541628443</v>
       </c>
       <c r="QO3" t="n">
-        <v>394775.2928234459</v>
+        <v>394758.7751043079</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.76677116254</v>
+        <v>3800.772306177797</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7885573568891</v>
+        <v>716.7880334379867</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.449427526673</v>
+        <v>1005.448762071582</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.6886272981856</v>
+        <v>328.6785283534917</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993929447870358</v>
+        <v>0.9993928766890428</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.699042302867687e-05</v>
+        <v>1.698958809359028e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02401138592637005</v>
+        <v>0.02401010943963927</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.464624088274266</v>
+        <v>0.4645468835933118</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8561685126453094</v>
+        <v>0.8559451604384903</v>
       </c>
       <c r="RA3" t="n">
-        <v>385584.1696575243</v>
+        <v>385480.7710164537</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.739474097991548</v>
+        <v>2.739856258994599</v>
       </c>
       <c r="RC3" t="n">
-        <v>381112.7188584201</v>
+        <v>381096.2011392881</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02451482902937142</v>
+        <v>0.02453974794778081</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.00215443225079865</v>
+        <v>0.002167609832442468</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01189215795639851</v>
+        <v>0.01189015978331983</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03201251962232494</v>
+        <v>0.03202685943685918</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04268282553708506</v>
+        <v>0.04269102601486462</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1132567643959786</v>
+        <v>0.1133154030152669</v>
       </c>
       <c r="RJ3" t="n">
-        <v>6.005437813705328e-11</v>
+        <v>1.973139568400839e-10</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357443.5642223978</v>
+        <v>357444.4675506005</v>
       </c>
     </row>
   </sheetData>
@@ -7566,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01595362529230444</v>
+        <v>0.01595401972262802</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.786050812204584e-07</v>
+        <v>-1.786755949196041e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379133206950267</v>
+        <v>0.01379134453101148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02518310637913935</v>
+        <v>0.0251829021128309</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05492788513586525</v>
+        <v>0.05492808769087547</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.011878081325079e-12</v>
+        <v>-2.750672606355309e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9677811191904419</v>
+        <v>0.9685503188567525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>275.2477306589063</v>
+        <v>338.0958596256044</v>
       </c>
       <c r="L2" t="n">
-        <v>112.4677878105801</v>
+        <v>138.1478906619198</v>
       </c>
       <c r="M2" t="n">
-        <v>251.2216350911524</v>
+        <v>308.5838145490438</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>275.2477306589063</v>
+        <v>338.0958596256044</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4677878105801</v>
+        <v>138.1478906619198</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.2216350911524</v>
+        <v>308.5838145490438</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.7988726470297</v>
+        <v>238.550347529745</v>
       </c>
       <c r="T2" t="n">
-        <v>83814.87751296435</v>
+        <v>63147.21202834806</v>
       </c>
       <c r="U2" t="n">
-        <v>1.133393119890522</v>
+        <v>0.9228700649634155</v>
       </c>
       <c r="V2" t="n">
-        <v>309953.3718783354</v>
+        <v>296205.2124962121</v>
       </c>
       <c r="W2" t="n">
-        <v>383903.7744721506</v>
+        <v>364630.0259404009</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.854258668025</v>
+        <v>3792.370883060711</v>
       </c>
       <c r="Y2" t="n">
-        <v>-592858.5820363635</v>
+        <v>-540041.3661754178</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4902164013987</v>
+        <v>716.0692961664068</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.143964931067</v>
+        <v>1004.573466381405</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402871863316492</v>
+        <v>1.402899791625687</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993170534663773</v>
+        <v>0.9992573200105828</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.9819053441663</v>
+        <v>309.7127839241946</v>
       </c>
       <c r="AE2" t="n">
-        <v>117501.5252309925</v>
+        <v>88523.55023988002</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.51052782535488e-06</v>
+        <v>1.129642899872647e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>83757.84581865536</v>
+        <v>63100.4087165046</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.193918002816245e-05</v>
+        <v>1.584775788842774e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003892473193464101</v>
+        <v>0.004205718628841697</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.643773782863037e-05</v>
+        <v>1.543228148686912e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0231685196901926</v>
+        <v>0.02164182501918937</v>
       </c>
       <c r="AL2" t="n">
-        <v>83814.87751296435</v>
+        <v>63147.21202834806</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.133393119890522</v>
+        <v>0.9228700649634155</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.133393119890522</v>
+        <v>0.9228700649634155</v>
       </c>
       <c r="AO2" t="n">
-        <v>309953.3718783354</v>
+        <v>296205.2124962121</v>
       </c>
       <c r="AP2" t="n">
-        <v>383903.7744721506</v>
+        <v>364630.0259404009</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.854258668025</v>
+        <v>3792.370883060711</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4902164013987</v>
+        <v>716.0692961664068</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.143964931067</v>
+        <v>1004.573466381405</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.9819053441663</v>
+        <v>309.7127839241946</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993170534663773</v>
+        <v>0.9992573200105828</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.643773782863037e-05</v>
+        <v>1.543228148686912e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0231685196901926</v>
+        <v>0.02164182501918937</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7718,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.59344726418</v>
+        <v>295.5896289137412</v>
       </c>
       <c r="BA2" t="n">
-        <v>135173.7940875501</v>
+        <v>133527.1257922502</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350418</v>
       </c>
       <c r="BD2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.854258670618</v>
+        <v>3792.370883057754</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698176.0604134272</v>
+        <v>-699201.070937729</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.85587500651</v>
+        <v>717.8515857589151</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.775180832938</v>
+        <v>1006.748143660334</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402475365718513</v>
+        <v>1.402446081659061</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.999530682273212</v>
+        <v>0.9995362887964684</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8025009247022</v>
+        <v>344.7985863365229</v>
       </c>
       <c r="BL2" t="n">
-        <v>189489.9388950483</v>
+        <v>187178.7167273437</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.27732504338325e-06</v>
+        <v>5.342487743714274e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135111.063999309</v>
+        <v>133465.8916126855</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.401318370234389e-06</v>
+        <v>7.492551002483642e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395612266864651</v>
+        <v>0.003395503619092925</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832922615850379e-05</v>
+        <v>1.83288034398889e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606723925876132</v>
+        <v>0.02606642662360855</v>
       </c>
       <c r="BS2" t="n">
-        <v>135173.7940875501</v>
+        <v>133527.1257922502</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350418</v>
       </c>
       <c r="BW2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.854258670618</v>
+        <v>3792.370883057754</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.85587500651</v>
+        <v>717.8515857589151</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.775180832938</v>
+        <v>1006.748143660334</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8025009247022</v>
+        <v>344.7985863365229</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.999530682273212</v>
+        <v>0.9995362887964684</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832922615850379e-05</v>
+        <v>1.83288034398889e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606723925876132</v>
+        <v>0.02606642662360855</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7819,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.59344726418</v>
+        <v>295.5896289137412</v>
       </c>
       <c r="CH2" t="n">
-        <v>135173.7940875501</v>
+        <v>133527.1257922502</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350418</v>
       </c>
       <c r="CK2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.854258670618</v>
+        <v>3792.370883057754</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698176.0604134272</v>
+        <v>-699201.070937729</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.85587500651</v>
+        <v>717.8515857589151</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.775180832938</v>
+        <v>1006.748143660334</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402475365718513</v>
+        <v>1.402446081659061</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.999530682273212</v>
+        <v>0.9995362887964684</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8025009247022</v>
+        <v>344.7985863365229</v>
       </c>
       <c r="CS2" t="n">
-        <v>189489.9388950483</v>
+        <v>187178.7167273437</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.27732504338325e-06</v>
+        <v>5.342487743714274e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135111.063999309</v>
+        <v>133465.8916126855</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.401318370234389e-06</v>
+        <v>7.492551002483642e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395612266864651</v>
+        <v>0.003395503619092925</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832922615850379e-05</v>
+        <v>1.83288034398889e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606723925876132</v>
+        <v>0.02606642662360855</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135173.7940875501</v>
+        <v>133527.1257922502</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593842273175004</v>
+        <v>1.574437815798264</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4117017416</v>
+        <v>336975.0315350418</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310885897</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.854258670618</v>
+        <v>3792.370883057754</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.85587500651</v>
+        <v>717.8515857589151</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.775180832938</v>
+        <v>1006.748143660334</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8025009247022</v>
+        <v>344.7985863365229</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.999530682273212</v>
+        <v>0.9995362887964684</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832922615850379e-05</v>
+        <v>1.83288034398889e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606723925876132</v>
+        <v>0.02606642662360855</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7920,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01612381832679476</v>
+        <v>0.02464867459752346</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.81513370428072e-07</v>
+        <v>-2.133898149463746e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379698661186935</v>
+        <v>0.01379699015885728</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510791097797932</v>
+        <v>0.02510782617055044</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05502853440327301</v>
+        <v>0.06355327753711625</v>
       </c>
       <c r="DT2" t="n">
-        <v>-2.504940699310509e-15</v>
+        <v>1.486728240518431e-10</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.854854655154283</v>
+        <v>1.09164321647232</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.854854655154283</v>
+        <v>1.09164321647232</v>
       </c>
       <c r="DW2" t="n">
-        <v>496478.0005377696</v>
+        <v>528917.595299511</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.736586426105478</v>
+        <v>2.737065943327333</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7959,157 +7959,157 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>382377.7567075124</v>
+        <v>362385.4595935549</v>
       </c>
       <c r="EB2" t="n">
-        <v>1469.784080631973</v>
+        <v>1471.157306864974</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02434338147346002</v>
+        <v>0.02438241703276283</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.001878260472335808</v>
+        <v>0.001899441191851519</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01189985195859623</v>
+        <v>0.01189653595440938</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.03191600446345273</v>
+        <v>0.03194002581011251</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.04236690797792522</v>
+        <v>0.04238224443048939</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.11240440634577</v>
+        <v>0.1125006644196256</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.497173773845617e-10</v>
+        <v>1.071653876749679e-11</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9379634650892735</v>
+        <v>0.9436170294888163</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>140.4501955842421</v>
+        <v>188.6962158199736</v>
       </c>
       <c r="EN2" t="n">
-        <v>125.6290992387072</v>
+        <v>152.3568433756917</v>
       </c>
       <c r="EO2" t="n">
-        <v>-62.7979845546248</v>
+        <v>-111.3267898637746</v>
       </c>
       <c r="EP2" t="n">
-        <v>-26.55900698279633</v>
+        <v>-36.15551240722066</v>
       </c>
       <c r="EQ2" t="n">
-        <v>260.4089494828316</v>
+        <v>315.811271197589</v>
       </c>
       <c r="ER2" t="n">
-        <v>125.6290992387072</v>
+        <v>152.3568433756917</v>
       </c>
       <c r="ES2" t="n">
-        <v>-228.1011845546248</v>
+        <v>-276.6299898637746</v>
       </c>
       <c r="ET2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EU2" t="n">
-        <v>235.052121044763</v>
+        <v>219.078737011812</v>
       </c>
       <c r="EV2" t="n">
-        <v>58317.76853238849</v>
+        <v>44826.28584849116</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.8649646100817684</v>
+        <v>0.7133500741770984</v>
       </c>
       <c r="EX2" t="n">
-        <v>293711.261416101</v>
+        <v>282305.2006625593</v>
       </c>
       <c r="EY2" t="n">
-        <v>361133.4054583589</v>
+        <v>345144.3135626337</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3800.425886748271</v>
+        <v>3805.450634596876</v>
       </c>
       <c r="FA2" t="n">
-        <v>-532164.7600952463</v>
+        <v>-488549.0052256483</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.0019737104772</v>
+        <v>715.7797893914977</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.443230290016</v>
+        <v>1004.096577218746</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.402849806523262</v>
+        <v>1.402800962112039</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992684014918048</v>
+        <v>0.9992486883201731</v>
       </c>
       <c r="FF2" t="n">
-        <v>307.4314010852821</v>
+        <v>296.7905044418305</v>
       </c>
       <c r="FG2" t="n">
-        <v>81751.32256778887</v>
+        <v>62835.15845972893</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.223221800688046e-05</v>
+        <v>1.591465708868866e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>58275.17827471242</v>
+        <v>44792.63998017587</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.715996466430261e-05</v>
+        <v>2.232509627569564e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004267799086871201</v>
+        <v>0.004578074720757783</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.524601280759865e-05</v>
+        <v>1.438304381852697e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02135982793109958</v>
+        <v>0.02005889186784518</v>
       </c>
       <c r="FN2" t="n">
-        <v>58317.76853238849</v>
+        <v>44826.28584849116</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.8649646100817684</v>
+        <v>0.7133500741770984</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8649646100817684</v>
+        <v>0.7133500741770984</v>
       </c>
       <c r="FQ2" t="n">
-        <v>293711.261416101</v>
+        <v>282305.2006625593</v>
       </c>
       <c r="FR2" t="n">
-        <v>361133.4054583589</v>
+        <v>345144.3135626337</v>
       </c>
       <c r="FS2" t="n">
-        <v>3800.425886748271</v>
+        <v>3805.450634596876</v>
       </c>
       <c r="FT2" t="n">
-        <v>716.0019737104772</v>
+        <v>715.7797893914977</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.443230290016</v>
+        <v>1004.096577218746</v>
       </c>
       <c r="FV2" t="n">
-        <v>307.4314010852821</v>
+        <v>296.7905044418305</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992684014918048</v>
+        <v>0.9992486883201731</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.524601280759865e-05</v>
+        <v>1.438304381852697e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02135982793109958</v>
+        <v>0.02005889186784518</v>
       </c>
       <c r="FZ2" t="inlineStr">
         <is>
@@ -8120,97 +8120,97 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>244.901849478585</v>
+        <v>236.860086033248</v>
       </c>
       <c r="GC2" t="n">
-        <v>67303.47666434497</v>
+        <v>58861.77091356134</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.9580643599382868</v>
+        <v>0.8663542991132016</v>
       </c>
       <c r="GE2" t="n">
-        <v>300747.1026382411</v>
+        <v>295005.5286140428</v>
       </c>
       <c r="GF2" t="n">
-        <v>370996.534178185</v>
+        <v>362947.444495123</v>
       </c>
       <c r="GG2" t="n">
-        <v>3800.425886756922</v>
+        <v>3805.450634608547</v>
       </c>
       <c r="GH2" t="n">
-        <v>-559734.7942948767</v>
+        <v>-538411.9202135357</v>
       </c>
       <c r="GI2" t="n">
-        <v>716.1815062595471</v>
+        <v>716.027329181172</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1004.686858828681</v>
+        <v>1004.45594161672</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.402838316889711</v>
+        <v>1.402817882336121</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.999296852038471</v>
+        <v>0.9992857090438113</v>
       </c>
       <c r="GM2" t="n">
-        <v>313.8143817744511</v>
+        <v>308.6133179742274</v>
       </c>
       <c r="GN2" t="n">
-        <v>94349.66676009246</v>
+        <v>82513.47212682373</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.059887156297806e-05</v>
+        <v>1.21192330685466e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>67256.26583203037</v>
+        <v>58819.80345831747</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.486850314433836e-05</v>
+        <v>1.700107686875642e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.004096489743779221</v>
+        <v>0.004235056531841606</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.576704914504796e-05</v>
+        <v>1.53420988977869e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.02214871044323635</v>
+        <v>0.02150494167269213</v>
       </c>
       <c r="GU2" t="n">
-        <v>67303.47666434497</v>
+        <v>58861.77091356134</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.9580643599382868</v>
+        <v>0.8663542991132016</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.9580643599382868</v>
+        <v>0.8663542991132016</v>
       </c>
       <c r="GX2" t="n">
-        <v>300747.1026382411</v>
+        <v>295005.5286140428</v>
       </c>
       <c r="GY2" t="n">
-        <v>370996.534178185</v>
+        <v>362947.444495123</v>
       </c>
       <c r="GZ2" t="n">
-        <v>3800.425886756922</v>
+        <v>3805.450634608547</v>
       </c>
       <c r="HA2" t="n">
-        <v>716.1815062595471</v>
+        <v>716.027329181172</v>
       </c>
       <c r="HB2" t="n">
-        <v>1004.686858828681</v>
+        <v>1004.45594161672</v>
       </c>
       <c r="HC2" t="n">
-        <v>313.8143817744511</v>
+        <v>308.6133179742274</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.999296852038471</v>
+        <v>0.9992857090438113</v>
       </c>
       <c r="HE2" t="n">
-        <v>1.576704914504796e-05</v>
+        <v>1.53420988977869e-05</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.02214871044323635</v>
+        <v>0.02150494167269213</v>
       </c>
       <c r="HG2" t="inlineStr">
         <is>
@@ -8221,97 +8221,97 @@
         <v>1</v>
       </c>
       <c r="HI2" t="n">
-        <v>268.9039605350202</v>
+        <v>268.8723414321111</v>
       </c>
       <c r="HJ2" t="n">
-        <v>93288.9056358049</v>
+        <v>91636.9161672997</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.209316683703493</v>
+        <v>1.188029179719441</v>
       </c>
       <c r="HL2" t="n">
-        <v>317897.9829623805</v>
+        <v>317879.1363098109</v>
       </c>
       <c r="HM2" t="n">
-        <v>395039.8159437222</v>
+        <v>395012.6930705464</v>
       </c>
       <c r="HN2" t="n">
-        <v>3800.425886741381</v>
+        <v>3805.450634601534</v>
       </c>
       <c r="HO2" t="n">
-        <v>-626909.7567208513</v>
+        <v>-628167.729259081</v>
       </c>
       <c r="HP2" t="n">
-        <v>716.7972368566878</v>
+        <v>716.7910582469077</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1005.461793155482</v>
+        <v>1005.427410187</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.402714382054054</v>
+        <v>1.402678505289987</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.99939351081105</v>
+        <v>0.9994038051237329</v>
       </c>
       <c r="HT2" t="n">
-        <v>328.8504964616066</v>
+        <v>328.8303269833933</v>
       </c>
       <c r="HU2" t="n">
-        <v>130778.7096834597</v>
+        <v>128460.8633105652</v>
       </c>
       <c r="HV2" t="n">
-        <v>7.646504560416808e-06</v>
+        <v>7.784472050311649e-06</v>
       </c>
       <c r="HW2" t="n">
-        <v>93232.600561174</v>
+        <v>91582.54213356432</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.072586191933857e-05</v>
+        <v>1.091911162000282e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.003731506949981031</v>
+        <v>0.003731725201430304</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.700381535925022e-05</v>
+        <v>1.700197027962716e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.02403187162950459</v>
+        <v>0.02402885426130967</v>
       </c>
       <c r="IB2" t="n">
-        <v>93288.9056358049</v>
+        <v>91636.9161672997</v>
       </c>
       <c r="IC2" t="n">
-        <v>1.209316683703493</v>
+        <v>1.188029179719441</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.209316683703493</v>
+        <v>1.188029179719441</v>
       </c>
       <c r="IE2" t="n">
-        <v>317897.9829623805</v>
+        <v>317879.1363098109</v>
       </c>
       <c r="IF2" t="n">
-        <v>395039.8159437222</v>
+        <v>395012.6930705464</v>
       </c>
       <c r="IG2" t="n">
-        <v>3800.425886741381</v>
+        <v>3805.450634601534</v>
       </c>
       <c r="IH2" t="n">
-        <v>716.7972368566878</v>
+        <v>716.7910582469077</v>
       </c>
       <c r="II2" t="n">
-        <v>1005.461793155482</v>
+        <v>1005.427410187</v>
       </c>
       <c r="IJ2" t="n">
-        <v>328.8504964616066</v>
+        <v>328.8303269833933</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.99939351081105</v>
+        <v>0.9994038051237329</v>
       </c>
       <c r="IL2" t="n">
-        <v>1.700381535925022e-05</v>
+        <v>1.700197027962716e-05</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.02403187162950459</v>
+        <v>0.02402885426130967</v>
       </c>
       <c r="IN2" t="inlineStr">
         <is>
@@ -8322,52 +8322,52 @@
         <v>1</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02422153926379563</v>
+        <v>0.02995672937057838</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001910144933411382</v>
+        <v>0.002238573287792887</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01191623495208557</v>
+        <v>0.01191452607860472</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03182251866160238</v>
+        <v>0.03183734622363946</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04246812532376748</v>
+        <v>0.04249305104987034</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1123385631346624</v>
+        <v>0.1184402260104858</v>
       </c>
       <c r="IV2" t="n">
-        <v>7.905734400459608e-11</v>
+        <v>-8.365963755085914e-10</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.4568505204362026</v>
+        <v>0.6357892621088124</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.8470473366206129</v>
+        <v>1.064088191741614</v>
       </c>
       <c r="IY2" t="n">
-        <v>385010.324163787</v>
+        <v>408182.0893269871</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.736586426134018</v>
+        <v>2.73706594220124</v>
       </c>
       <c r="JA2" t="n">
-        <v>381377.2419785146</v>
+        <v>381350.1191053325</v>
       </c>
       <c r="JB2" t="n">
         <v>0</v>
       </c>
       <c r="JC2" t="n">
-        <v>358368.2703438241</v>
+        <v>341483.2649784075</v>
       </c>
       <c r="JD2" t="n">
-        <v>2665.532412073109</v>
+        <v>2666.00431544712</v>
       </c>
       <c r="JE2" t="n">
-        <v>6.056611494148711</v>
+        <v>6.094960074882643</v>
       </c>
     </row>
     <row r="3">
@@ -8375,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01597187822308748</v>
+        <v>0.01597125674044328</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.792898703213425e-07</v>
+        <v>-1.793336701803399e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379193482753929</v>
+        <v>0.01379191296188898</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02517482432426621</v>
+        <v>0.02517508639432077</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05493845808502265</v>
+        <v>0.05493807676298285</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.593725151849412e-13</v>
+        <v>-2.823019595865617e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9678707379513869</v>
+        <v>0.9687822899598867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.507466126227</v>
+        <v>337.1378185781524</v>
       </c>
       <c r="L3" t="n">
-        <v>112.982522885405</v>
+        <v>137.756429642493</v>
       </c>
       <c r="M3" t="n">
-        <v>252.3714095257138</v>
+        <v>307.7093999340743</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>276.507466126227</v>
+        <v>337.1378185781524</v>
       </c>
       <c r="P3" t="n">
-        <v>112.982522885405</v>
+        <v>137.756429642493</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.3714095257138</v>
+        <v>307.7093999340743</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.4518752237256</v>
+        <v>238.8734885475422</v>
       </c>
       <c r="T3" t="n">
-        <v>83408.53277164997</v>
+        <v>63477.1218312299</v>
       </c>
       <c r="U3" t="n">
-        <v>1.129420032663572</v>
+        <v>0.92643607332934</v>
       </c>
       <c r="V3" t="n">
-        <v>309705.4772493699</v>
+        <v>296435.9355224382</v>
       </c>
       <c r="W3" t="n">
-        <v>383556.2416766159</v>
+        <v>364953.4767307719</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.899353197075</v>
+        <v>3792.23120605136</v>
       </c>
       <c r="Y3" t="n">
-        <v>-591903.0018379323</v>
+        <v>-540910.0208375697</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4811773128558</v>
+        <v>716.0751648317334</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.13227639418</v>
+        <v>1004.582202840284</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402873248064803</v>
+        <v>1.402900494498152</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993156883447564</v>
+        <v>0.9992578932508425</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.764854430399</v>
+        <v>309.9227396406397</v>
       </c>
       <c r="AE3" t="n">
-        <v>116931.8168089241</v>
+        <v>88986.13457094877</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.55199232587038e-06</v>
+        <v>1.123770579339749e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>83351.66200526383</v>
+        <v>63430.11134426969</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.199736125161905e-05</v>
+        <v>1.576538301458209e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003897707002513259</v>
+        <v>0.004200047689955406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.64198761594252e-05</v>
+        <v>1.54494153531307e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02314131260388255</v>
+        <v>0.0216677612104687</v>
       </c>
       <c r="AL3" t="n">
-        <v>83408.53277164997</v>
+        <v>63477.1218312299</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.129420032663572</v>
+        <v>0.92643607332934</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.129420032663572</v>
+        <v>0.92643607332934</v>
       </c>
       <c r="AO3" t="n">
-        <v>309705.4772493699</v>
+        <v>296435.9355224382</v>
       </c>
       <c r="AP3" t="n">
-        <v>383556.2416766159</v>
+        <v>364953.4767307719</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.899353197075</v>
+        <v>3792.23120605136</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4811773128558</v>
+        <v>716.0751648317334</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.13227639418</v>
+        <v>1004.582202840284</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.764854430399</v>
+        <v>309.9227396406397</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993156883447564</v>
+        <v>0.9992578932508425</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.64198761594252e-05</v>
+        <v>1.54494153531307e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02314131260388255</v>
+        <v>0.0216677612104687</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8527,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.593398005596</v>
+        <v>295.5897796898197</v>
       </c>
       <c r="BA3" t="n">
-        <v>135152.5504030516</v>
+        <v>133592.1455572057</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4196989326</v>
+        <v>336975.0070627222</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.899353198072</v>
+        <v>3792.231206048236</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698189.2034245335</v>
+        <v>-699160.3556402687</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8558196727409</v>
+        <v>717.851755128174</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774832033361</v>
+        <v>1006.749211262252</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474987933279</v>
+        <v>1.402447237985083</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995307545857498</v>
+        <v>0.9995360673678099</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8024504176052</v>
+        <v>344.7987408918731</v>
       </c>
       <c r="BL3" t="n">
-        <v>189460.1213379624</v>
+        <v>187269.9754738762</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.278155597800879e-06</v>
+        <v>5.339884289884463e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135089.8397248107</v>
+        <v>133530.8526422211</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.402481208335755e-06</v>
+        <v>7.488905973508403e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395610865323299</v>
+        <v>0.003395507909490767</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832922070483191e-05</v>
+        <v>1.832882013069173e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606722877439794</v>
+        <v>0.02606645870940644</v>
       </c>
       <c r="BS3" t="n">
-        <v>135152.5504030516</v>
+        <v>133592.1455572057</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4196989326</v>
+        <v>336975.0070627222</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.899353198072</v>
+        <v>3792.231206048236</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8558196727409</v>
+        <v>717.851755128174</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774832033361</v>
+        <v>1006.749211262252</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8024504176052</v>
+        <v>344.7987408918731</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995307545857498</v>
+        <v>0.9995360673678099</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832922070483191e-05</v>
+        <v>1.832882013069173e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606722877439794</v>
+        <v>0.02606645870940644</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8628,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.593398005596</v>
+        <v>295.5897796898197</v>
       </c>
       <c r="CH3" t="n">
-        <v>135152.5504030516</v>
+        <v>133592.1455572057</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4196989326</v>
+        <v>336975.0070627222</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.899353198072</v>
+        <v>3792.231206048236</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698189.2034245335</v>
+        <v>-699160.3556402687</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8558196727409</v>
+        <v>717.851755128174</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774832033361</v>
+        <v>1006.749211262252</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474987933279</v>
+        <v>1.402447237985083</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995307545857498</v>
+        <v>0.9995360673678099</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8024504176052</v>
+        <v>344.7987408918731</v>
       </c>
       <c r="CS3" t="n">
-        <v>189460.1213379624</v>
+        <v>187269.9754738762</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.278155597800879e-06</v>
+        <v>5.339884289884463e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135089.8397248107</v>
+        <v>133530.8526422211</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.402481208335755e-06</v>
+        <v>7.488905973508403e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395610865323299</v>
+        <v>0.003395507909490767</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832922070483191e-05</v>
+        <v>1.832882013069173e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606722877439794</v>
+        <v>0.02606645870940644</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135152.5504030516</v>
+        <v>133592.1455572057</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593591937893476</v>
+        <v>1.575204018798376</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4196989326</v>
+        <v>336975.0070627222</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.899353198072</v>
+        <v>3792.231206048236</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8558196727409</v>
+        <v>717.851755128174</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774832033361</v>
+        <v>1006.749211262252</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8024504176052</v>
+        <v>344.7987408918731</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995307545857498</v>
+        <v>0.9995360673678099</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832922070483191e-05</v>
+        <v>1.832882013069173e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606722877439794</v>
+        <v>0.02606645870940644</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8729,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01612531557353632</v>
+        <v>0.02396191688073826</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.820328153605661e-07</v>
+        <v>-2.127989960150563e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379700796025314</v>
+        <v>0.01379701078343929</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510740051178982</v>
+        <v>0.02510733300005937</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05502954201276392</v>
+        <v>0.06286604786524091</v>
       </c>
       <c r="DT3" t="n">
-        <v>-3.603367604299024e-13</v>
+        <v>5.046948969855691e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.859346390132358</v>
+        <v>1.087812462451349</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.859346390132358</v>
+        <v>1.087812462451349</v>
       </c>
       <c r="DW3" t="n">
-        <v>497542.5313279555</v>
+        <v>528869.6194842092</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.739474097884628</v>
+        <v>2.739856258967825</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8768,157 +8768,157 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>382020.7369443055</v>
+        <v>362738.9247225848</v>
       </c>
       <c r="EB3" t="n">
-        <v>1483.141419851978</v>
+        <v>1483.976231095148</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02451482902937142</v>
+        <v>0.02453974794778081</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.00215443225079865</v>
+        <v>0.002167609832442468</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01189215795639851</v>
+        <v>0.01189015978331983</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.03201251962232494</v>
+        <v>0.03202685943685918</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04268282553708506</v>
+        <v>0.04269102601486462</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1132567643959786</v>
+        <v>0.1133154030152669</v>
       </c>
       <c r="EJ3" t="n">
-        <v>6.005437813705328e-11</v>
+        <v>1.973139568400839e-10</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9384151266761984</v>
+        <v>0.9438158167572253</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>145.4521741418203</v>
+        <v>184.2925193706318</v>
       </c>
       <c r="EN3" t="n">
-        <v>128.5369818157429</v>
+        <v>150.0066172461504</v>
       </c>
       <c r="EO3" t="n">
-        <v>-68.07774429490016</v>
+        <v>-107.0595510841589</v>
       </c>
       <c r="EP3" t="n">
-        <v>-27.90728134182273</v>
+        <v>-35.51540672846575</v>
       </c>
       <c r="EQ3" t="n">
-        <v>266.4365231237638</v>
+        <v>310.9396298250909</v>
       </c>
       <c r="ER3" t="n">
-        <v>128.5369818157429</v>
+        <v>150.0066172461504</v>
       </c>
       <c r="ES3" t="n">
-        <v>-233.3809442949002</v>
+        <v>-272.3627510841589</v>
       </c>
       <c r="ET3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EU3" t="n">
-        <v>233.201700059851</v>
+        <v>220.3504270347657</v>
       </c>
       <c r="EV3" t="n">
-        <v>56609.23433985264</v>
+        <v>45839.58332114296</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.8462886507230625</v>
+        <v>0.7252650968110712</v>
       </c>
       <c r="EX3" t="n">
-        <v>292389.9167267599</v>
+        <v>283213.1474842722</v>
       </c>
       <c r="EY3" t="n">
-        <v>359281.0823964002</v>
+        <v>346417.0484064256</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3801.043288492974</v>
+        <v>3804.831655095016</v>
       </c>
       <c r="FA3" t="n">
-        <v>-527128.674481248</v>
+        <v>-491979.2315891556</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.9717730461643</v>
+        <v>715.7947099501574</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.398116120782</v>
+        <v>1004.122146496034</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.402845969537992</v>
+        <v>1.40280744260593</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9992653354508528</v>
+        <v>0.9992490799066346</v>
       </c>
       <c r="FF3" t="n">
-        <v>306.2175310710239</v>
+        <v>297.6514604478733</v>
       </c>
       <c r="FG3" t="n">
-        <v>79355.78972015769</v>
+        <v>64255.87075336199</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.260147499667543e-05</v>
+        <v>1.556278030747374e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>56567.71409215539</v>
+        <v>45805.19663767741</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.767792840931991e-05</v>
+        <v>2.183158404296517e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004301565591285836</v>
+        <v>0.004551735842033405</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.514718864595288e-05</v>
+        <v>1.445258837141292e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02121047961229065</v>
+        <v>0.02016346877702078</v>
       </c>
       <c r="FN3" t="n">
-        <v>56609.23433985264</v>
+        <v>45839.58332114296</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.8462886507230625</v>
+        <v>0.7252650968110712</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.8462886507230625</v>
+        <v>0.7252650968110712</v>
       </c>
       <c r="FQ3" t="n">
-        <v>292389.9167267599</v>
+        <v>283213.1474842722</v>
       </c>
       <c r="FR3" t="n">
-        <v>359281.0823964002</v>
+        <v>346417.0484064256</v>
       </c>
       <c r="FS3" t="n">
-        <v>3801.043288492974</v>
+        <v>3804.831655095016</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.9717730461643</v>
+        <v>715.7947099501574</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.398116120782</v>
+        <v>1004.122146496034</v>
       </c>
       <c r="FV3" t="n">
-        <v>306.2175310710239</v>
+        <v>297.6514604478733</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.9992653354508528</v>
+        <v>0.9992490799066346</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.514718864595288e-05</v>
+        <v>1.445258837141292e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02121047961229065</v>
+        <v>0.02016346877702078</v>
       </c>
       <c r="FZ3" t="inlineStr">
         <is>
@@ -8929,97 +8929,97 @@
         <v>1</v>
       </c>
       <c r="GB3" t="n">
-        <v>243.7657103887737</v>
+        <v>237.3114091472355</v>
       </c>
       <c r="GC3" t="n">
-        <v>66077.7847027737</v>
+        <v>59381.83359302791</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.9450026382001244</v>
+        <v>0.8723469055861375</v>
       </c>
       <c r="GE3" t="n">
-        <v>299935.8633900806</v>
+        <v>295327.5623912971</v>
       </c>
       <c r="GF3" t="n">
-        <v>369859.2498777916</v>
+        <v>363398.9147544131</v>
       </c>
       <c r="GG3" t="n">
-        <v>3801.043288501648</v>
+        <v>3804.831655075543</v>
       </c>
       <c r="GH3" t="n">
-        <v>-556704.7675622933</v>
+        <v>-539531.0468795724</v>
       </c>
       <c r="GI3" t="n">
-        <v>716.1582272497777</v>
+        <v>716.0356268597493</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1004.653035361032</v>
+        <v>1004.470097518196</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.402836687667675</v>
+        <v>1.402821395805969</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9992947564415765</v>
+        <v>0.9992853730783436</v>
       </c>
       <c r="GM3" t="n">
-        <v>313.0847706804387</v>
+        <v>308.9074868974927</v>
       </c>
       <c r="GN3" t="n">
-        <v>92631.11818410849</v>
+        <v>83242.68758384725</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.079550824391923e-05</v>
+        <v>1.201306720176156e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>66031.29145283111</v>
+        <v>59339.47673789326</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.514433502658874e-05</v>
+        <v>1.685218769988606e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.004115516130204761</v>
+        <v>0.004227046524953911</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.570734104011767e-05</v>
+        <v>1.536610270562506e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.02205815272648845</v>
+        <v>0.02154126949815109</v>
       </c>
       <c r="GU3" t="n">
-        <v>66077.7847027737</v>
+        <v>59381.83359302791</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.9450026382001244</v>
+        <v>0.8723469055861375</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.9450026382001244</v>
+        <v>0.8723469055861375</v>
       </c>
       <c r="GX3" t="n">
-        <v>299935.8633900806</v>
+        <v>295327.5623912971</v>
       </c>
       <c r="GY3" t="n">
-        <v>369859.2498777916</v>
+        <v>363398.9147544131</v>
       </c>
       <c r="GZ3" t="n">
-        <v>3801.043288501648</v>
+        <v>3804.831655075543</v>
       </c>
       <c r="HA3" t="n">
-        <v>716.1582272497777</v>
+        <v>716.0356268597493</v>
       </c>
       <c r="HB3" t="n">
-        <v>1004.653035361032</v>
+        <v>1004.470097518196</v>
       </c>
       <c r="HC3" t="n">
-        <v>313.0847706804387</v>
+        <v>308.9074868974927</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.9992947564415765</v>
+        <v>0.9992853730783436</v>
       </c>
       <c r="HE3" t="n">
-        <v>1.570734104011767e-05</v>
+        <v>1.536610270562506e-05</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.02205815272648845</v>
+        <v>0.02154126949815109</v>
       </c>
       <c r="HG3" t="inlineStr">
         <is>
@@ -9030,97 +9030,97 @@
         <v>1</v>
       </c>
       <c r="HI3" t="n">
-        <v>268.6394115134096</v>
+        <v>268.6195007558688</v>
       </c>
       <c r="HJ3" t="n">
-        <v>92769.53420151347</v>
+        <v>91532.89075472709</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.203768259264406</v>
+        <v>1.187800466604446</v>
       </c>
       <c r="HL3" t="n">
-        <v>317709.35136208</v>
+        <v>317697.9443266671</v>
       </c>
       <c r="HM3" t="n">
-        <v>394775.2928234396</v>
+        <v>394758.7751044081</v>
       </c>
       <c r="HN3" t="n">
-        <v>3801.043288492974</v>
+        <v>3804.831655078075</v>
       </c>
       <c r="HO3" t="n">
-        <v>-626334.7393343081</v>
+        <v>-627293.2045427904</v>
       </c>
       <c r="HP3" t="n">
-        <v>716.7882625206952</v>
+        <v>716.7837337689165</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1005.44758115165</v>
+        <v>1005.421836708458</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.402712116986738</v>
+        <v>1.402685062929449</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9993935236460887</v>
+        <v>0.9994013208080417</v>
       </c>
       <c r="HT3" t="n">
-        <v>328.6884284588024</v>
+        <v>328.6756296307965</v>
       </c>
       <c r="HU3" t="n">
-        <v>130050.4075739259</v>
+        <v>128315.3162539705</v>
       </c>
       <c r="HV3" t="n">
-        <v>7.689326151719744e-06</v>
+        <v>7.793301915889224e-06</v>
       </c>
       <c r="HW3" t="n">
-        <v>92713.54114577413</v>
+        <v>91478.35080384281</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.078591096448029e-05</v>
+        <v>1.093154818831727e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.003735147758433165</v>
+        <v>0.003735258343398956</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.699039672448503e-05</v>
+        <v>1.698920454361624e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.02401133482324138</v>
+        <v>0.02400936429272279</v>
       </c>
       <c r="IB3" t="n">
-        <v>92769.53420151347</v>
+        <v>91532.89075472709</v>
       </c>
       <c r="IC3" t="n">
-        <v>1.203768259264406</v>
+        <v>1.187800466604446</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.203768259264406</v>
+        <v>1.187800466604446</v>
       </c>
       <c r="IE3" t="n">
-        <v>317709.35136208</v>
+        <v>317697.9443266671</v>
       </c>
       <c r="IF3" t="n">
-        <v>394775.2928234396</v>
+        <v>394758.7751044081</v>
       </c>
       <c r="IG3" t="n">
-        <v>3801.043288492974</v>
+        <v>3804.831655078075</v>
       </c>
       <c r="IH3" t="n">
-        <v>716.7882625206952</v>
+        <v>716.7837337689165</v>
       </c>
       <c r="II3" t="n">
-        <v>1005.44758115165</v>
+        <v>1005.421836708458</v>
       </c>
       <c r="IJ3" t="n">
-        <v>328.6884284588024</v>
+        <v>328.6756296307965</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.9993935236460887</v>
+        <v>0.9994013208080417</v>
       </c>
       <c r="IL3" t="n">
-        <v>1.699039672448503e-05</v>
+        <v>1.698920454361624e-05</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.02401133482324138</v>
+        <v>0.02400936429272279</v>
       </c>
       <c r="IN3" t="inlineStr">
         <is>
@@ -9131,52 +9131,52 @@
         <v>1</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02445060329164753</v>
+        <v>0.02709910828611714</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002174219648202877</v>
+        <v>0.00246339551888002</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01189873409971201</v>
+        <v>0.01189775205045712</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03197489170119146</v>
+        <v>0.03198341153060221</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04272264878352321</v>
+        <v>0.04273691829893128</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1132210975242771</v>
+        <v>0.1161805856849878</v>
       </c>
       <c r="IV3" t="n">
-        <v>2.553884881351109e-11</v>
+        <v>3.846517548922179e-11</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.4749962343210332</v>
+        <v>0.6191554346594794</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.8700890579055928</v>
+        <v>1.044643387125409</v>
       </c>
       <c r="IY3" t="n">
-        <v>387931.1479368864</v>
+        <v>406632.0749979218</v>
       </c>
       <c r="IZ3" t="n">
-        <v>2.739474098656393</v>
+        <v>2.739856258962881</v>
       </c>
       <c r="JA3" t="n">
-        <v>381112.7188584201</v>
+        <v>381096.2011392881</v>
       </c>
       <c r="JB3" t="n">
         <v>0</v>
       </c>
       <c r="JC3" t="n">
-        <v>356409.7355695459</v>
+        <v>342881.8079181002</v>
       </c>
       <c r="JD3" t="n">
-        <v>2819.454164819967</v>
+        <v>2819.847048619471</v>
       </c>
       <c r="JE3" t="n">
-        <v>6.446071889844369</v>
+        <v>6.467767151772186</v>
       </c>
     </row>
   </sheetData>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4116004983370839</v>
+        <v>0.4107228768129178</v>
       </c>
     </row>
     <row r="3">
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4307135950131913</v>
+        <v>0.430192812248592</v>
       </c>
     </row>
   </sheetData>
@@ -10316,20 +10316,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The relative error between two consecutive iterates is at most 0.000000</t>
+          <t>The solution converged.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.70513193888009e-10</v>
+        <v>8.598480385520059e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>1.121151705085585e-10</v>
+        <v>2.018523993253076e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_critical_mach_number_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_critical_mach_number_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015461016658452</v>
+        <v>2.015459089785701</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000051814</v>
+        <v>2.299999999896733</v>
       </c>
       <c r="D2" t="n">
-        <v>2.737065942821826</v>
+        <v>2.737132877174571</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56376337565823</v>
+        <v>92.57373299497083</v>
       </c>
       <c r="F2" t="n">
-        <v>79.09413211390523</v>
+        <v>79.10285506238617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455173252527364</v>
+        <v>0.1455151207234613</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23964943915797</v>
+        <v>-78.24837018310963</v>
       </c>
       <c r="I2" t="n">
-        <v>136037.5212772349</v>
+        <v>136055.8513998244</v>
       </c>
       <c r="J2" t="n">
-        <v>83.61249002903192</v>
+        <v>83.62375623836779</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.49242669086884</v>
+        <v>-24.49123175059087</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2343262577869</v>
+        <v>135.2333018809306</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372082.4786624874</v>
+        <v>372076.9972499119</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7155777079171034</v>
+        <v>0.7155864575122715</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069685994689011</v>
+        <v>2.069682089135858</v>
       </c>
       <c r="C3" t="n">
-        <v>2.39999999987482</v>
+        <v>2.400000000045853</v>
       </c>
       <c r="D3" t="n">
-        <v>2.739856258994599</v>
+        <v>2.739950504876989</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53315092672361</v>
+        <v>92.54755205394881</v>
       </c>
       <c r="F3" t="n">
-        <v>78.21512356147706</v>
+        <v>78.22759709593238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1547340301486642</v>
+        <v>0.1547307804496966</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.36985759162572</v>
+        <v>-77.38232787638208</v>
       </c>
       <c r="I3" t="n">
-        <v>140717.8707274362</v>
+        <v>140745.153230451</v>
       </c>
       <c r="J3" t="n">
-        <v>86.48916455281878</v>
+        <v>86.50593314717335</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.92738856692169</v>
+        <v>-26.92616156707678</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5519907092413</v>
+        <v>142.5504937745046</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370424.8496267967</v>
+        <v>370416.6589409062</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7033060664847693</v>
+        <v>0.7033181625811631</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.53202493518603</v>
+        <v>80.5341092828799</v>
       </c>
       <c r="D2" t="n">
-        <v>80.53202493518603</v>
+        <v>80.5341092828799</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.53202493518603</v>
+        <v>80.5341092828799</v>
       </c>
       <c r="H2" t="n">
-        <v>80.53202493518603</v>
+        <v>80.5341092828799</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3667825473038</v>
+        <v>292.3666151665087</v>
       </c>
       <c r="L2" t="n">
-        <v>132795.2111632479</v>
+        <v>132794.9454210314</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583128611419589</v>
+        <v>1.583126351548879</v>
       </c>
       <c r="N2" t="n">
-        <v>334660.2221713129</v>
+        <v>334660.1024328174</v>
       </c>
       <c r="O2" t="n">
-        <v>418541.7275685089</v>
+        <v>418541.5597094959</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687457.6460262529</v>
+        <v>-687457.1806975523</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7135574397223</v>
+        <v>717.7135498624235</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.648414819541</v>
+        <v>1006.648406027503</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576841951442</v>
+        <v>1.402576844509156</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980646704549</v>
+        <v>0.9994980635012641</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9166260128424</v>
+        <v>342.9165277614005</v>
       </c>
       <c r="W2" t="n">
-        <v>186162.9626728423</v>
+        <v>186162.5902530113</v>
       </c>
       <c r="X2" t="n">
-        <v>5.371637761037209e-06</v>
+        <v>5.371648507043829e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132729.2431363895</v>
+        <v>132728.9773689088</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534134726982684e-06</v>
+        <v>7.534149812821853e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433292028083072</v>
+        <v>0.003433293990478515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817211087541441e-05</v>
+        <v>1.817210268570585e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582538588512162</v>
+        <v>0.02582537327037927</v>
       </c>
       <c r="AD2" t="n">
-        <v>132795.2111632479</v>
+        <v>132794.9454210314</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583128611419589</v>
+        <v>1.583126351548879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583128611419589</v>
+        <v>1.583126351548879</v>
       </c>
       <c r="AG2" t="n">
-        <v>334660.2221713129</v>
+        <v>334660.1024328174</v>
       </c>
       <c r="AH2" t="n">
-        <v>418541.7275685089</v>
+        <v>418541.5597094959</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7135574397223</v>
+        <v>717.7135498624235</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.648414819541</v>
+        <v>1006.648406027503</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9166260128424</v>
+        <v>342.9165277614005</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980646704549</v>
+        <v>0.9994980635012641</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817211087541441e-05</v>
+        <v>1.817210268570585e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582538588512162</v>
+        <v>0.02582537327037927</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2348443289890823</v>
+        <v>0.234850474570637</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2348443289890823</v>
+        <v>0.234850474570637</v>
       </c>
       <c r="DH2" t="n">
-        <v>183534.2742726514</v>
+        <v>183538.8452669577</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.737065942913506</v>
+        <v>2.737132877075752</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.3599122181453</v>
+        <v>268.3987244992363</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.3833379474299</v>
+        <v>110.3975870666678</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.6069524549826</v>
+        <v>244.6431034847997</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.7118573989718</v>
+        <v>65.71225914200139</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.3599122181453</v>
+        <v>268.3987244992363</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.3833379474299</v>
+        <v>110.3975870666678</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.6069524549826</v>
+        <v>244.6431034847997</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.7118573989718</v>
+        <v>65.71225914200139</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.6680857918721</v>
+        <v>259.6576858915293</v>
       </c>
       <c r="ED2" t="n">
-        <v>86032.52134036155</v>
+        <v>86020.07171084444</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.154998165384347</v>
+        <v>1.154877330141906</v>
       </c>
       <c r="EF2" t="n">
-        <v>311288.7600657443</v>
+        <v>311281.3300790927</v>
       </c>
       <c r="EG2" t="n">
-        <v>385775.9098455301</v>
+        <v>385765.4934319872</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.598903897941</v>
+        <v>3788.600302124222</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598002.3153628332</v>
+        <v>-597973.6937855369</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5399202221849</v>
+        <v>716.5396390096752</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.208038831217</v>
+        <v>1005.207677660383</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863972351354</v>
+        <v>1.402864018869457</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993245345872221</v>
+        <v>0.9993244921768815</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.148616919474</v>
+        <v>323.1421372247434</v>
       </c>
       <c r="EO2" t="n">
-        <v>120610.7164728071</v>
+        <v>120593.2618922229</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.291137216032211e-06</v>
+        <v>8.292337269172833e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85974.63392737239</v>
+        <v>85962.18897210495</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.163133769019309e-05</v>
+        <v>1.163302158725278e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003864520382078089</v>
+        <v>0.003864674795194992</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.65337944312892e-05</v>
+        <v>1.653326074582245e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02331488829202127</v>
+        <v>0.02331407482658078</v>
       </c>
       <c r="EV2" t="n">
-        <v>86032.52134036155</v>
+        <v>86020.07171084444</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.154998165384347</v>
+        <v>1.154877330141906</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.154998165384347</v>
+        <v>1.154877330141906</v>
       </c>
       <c r="EY2" t="n">
-        <v>311288.7600657443</v>
+        <v>311281.3300790927</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385775.9098455301</v>
+        <v>385765.4934319872</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.598903897941</v>
+        <v>3788.600302124222</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5399202221849</v>
+        <v>716.5396390096752</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.208038831217</v>
+        <v>1005.207677660383</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.148616919474</v>
+        <v>323.1421372247434</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993245345872221</v>
+        <v>0.9993244921768815</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.65337944312892e-05</v>
+        <v>1.653326074582245e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02331488829202127</v>
+        <v>0.02331407482658078</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937263429248</v>
+        <v>295.5937248143222</v>
       </c>
       <c r="FK2" t="n">
-        <v>135294.1527847703</v>
+        <v>135293.4934544675</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3663917394</v>
+        <v>336974.3666400939</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.598903903142</v>
+        <v>3788.600302129423</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698101.6365350613</v>
+        <v>-698102.0440505127</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561885058064</v>
+        <v>717.8561867884559</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777156996068</v>
+        <v>1006.77714617058</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477506102776</v>
+        <v>1.402477494377667</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302725861848</v>
+        <v>0.9995302748304316</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027870808201</v>
+        <v>344.8027855133485</v>
       </c>
       <c r="FV2" t="n">
-        <v>189658.8741430901</v>
+        <v>189657.9487072353</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272624360542916e-06</v>
+        <v>5.272650088310541e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135231.3126718994</v>
+        <v>135230.653944571</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394737063790972e-06</v>
+        <v>7.39477308458395e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395620207416807</v>
+        <v>0.003395620163916087</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925705699682e-05</v>
+        <v>1.832925688774273e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729865941682</v>
+        <v>0.02606729833403095</v>
       </c>
       <c r="GC2" t="n">
-        <v>135294.1527847703</v>
+        <v>135293.4934544675</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3663917394</v>
+        <v>336974.3666400939</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.598903903142</v>
+        <v>3788.600302129423</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561885058064</v>
+        <v>717.8561867884559</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777156996068</v>
+        <v>1006.77714617058</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027870808201</v>
+        <v>344.8027855133485</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302725861848</v>
+        <v>0.9995302748304316</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925705699682e-05</v>
+        <v>1.832925688774273e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729865941682</v>
+        <v>0.02606729833403095</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937263429248</v>
+        <v>295.5937248143222</v>
       </c>
       <c r="GR2" t="n">
-        <v>135294.1527847703</v>
+        <v>135293.4934544675</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3663917394</v>
+        <v>336974.3666400939</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.598903903142</v>
+        <v>3788.600302129423</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698101.6365350613</v>
+        <v>-698102.0440505127</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561885058064</v>
+        <v>717.8561867884559</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777156996068</v>
+        <v>1006.77714617058</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477506102776</v>
+        <v>1.402477494377667</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302725861848</v>
+        <v>0.9995302748304316</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027870808201</v>
+        <v>344.8027855133485</v>
       </c>
       <c r="HC2" t="n">
-        <v>189658.8741430901</v>
+        <v>189657.9487072353</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272624360542916e-06</v>
+        <v>5.272650088310541e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135231.3126718994</v>
+        <v>135230.653944571</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394737063790972e-06</v>
+        <v>7.39477308458395e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395620207416807</v>
+        <v>0.003395620163916087</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925705699682e-05</v>
+        <v>1.832925688774273e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729865941682</v>
+        <v>0.02606729833403095</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135294.1527847703</v>
+        <v>135293.4934544675</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595260577487984</v>
+        <v>1.595252807956891</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3663917394</v>
+        <v>336974.3666400939</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.598903903142</v>
+        <v>3788.600302129423</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561885058064</v>
+        <v>717.8561867884559</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777156996068</v>
+        <v>1006.77714617058</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027870808201</v>
+        <v>344.8027855133485</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302725861848</v>
+        <v>0.9995302748304316</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925705699682e-05</v>
+        <v>1.832925688774273e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729865941682</v>
+        <v>0.02606729833403095</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8304535379924538</v>
+        <v>0.8305902993782781</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8304535379924538</v>
+        <v>0.8305902993782781</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490415.4475756913</v>
+        <v>490450.8918405246</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.737065943081671</v>
+        <v>2.737132877106187</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01595401972262802</v>
+        <v>0.01595443173417008</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.786755949196041e-07</v>
+        <v>-1.786910018971529e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379134453101148</v>
+        <v>0.01379135819422765</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.0251829021128309</v>
+        <v>0.02518271416010923</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05492808769087547</v>
+        <v>0.05492832539750506</v>
       </c>
       <c r="II2" t="n">
-        <v>-2.750672606355309e-11</v>
+        <v>-4.587454027760174e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384304.7525386651</v>
+        <v>384294.0340338842</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.3599122181453</v>
+        <v>268.3987244992363</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.3833379474299</v>
+        <v>110.3975870666678</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.6069524549826</v>
+        <v>244.6431034847997</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.7118573989718</v>
+        <v>65.71225914200139</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.9174986889387</v>
+        <v>135.9501655575301</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.3833379474299</v>
+        <v>110.3975870666678</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.3037524549826</v>
+        <v>79.33990348479972</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.69496007488264</v>
+        <v>35.70382967032461</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.6680857917721</v>
+        <v>259.6576858916289</v>
       </c>
       <c r="IV2" t="n">
-        <v>86032.52134025063</v>
+        <v>86020.07171295618</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.154998165383304</v>
+        <v>1.154877330169833</v>
       </c>
       <c r="IX2" t="n">
-        <v>311288.7600656727</v>
+        <v>311281.3300791591</v>
       </c>
       <c r="IY2" t="n">
-        <v>385775.9098454297</v>
+        <v>385765.493432081</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.598903897925</v>
+        <v>3788.60030211754</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598002.3153625502</v>
+        <v>-597973.6937840857</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5399202221824</v>
+        <v>716.5396390096848</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.208038831213</v>
+        <v>1005.207677660431</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402863972351355</v>
+        <v>1.402864018869505</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993245345872217</v>
+        <v>0.9993244921768663</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.1486169194117</v>
+        <v>323.142137224806</v>
       </c>
       <c r="JG2" t="n">
-        <v>120610.7164726516</v>
+        <v>120593.2618951857</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.291137216042899e-06</v>
+        <v>8.292337268969103e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85974.63392726149</v>
+        <v>85962.18897421398</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.163133769020809e-05</v>
+        <v>1.163302158696737e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003864520382079576</v>
+        <v>0.003864674795193824</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.653379443128406e-05</v>
+        <v>1.653326074582787e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02331488829201344</v>
+        <v>0.0233140748265893</v>
       </c>
       <c r="JN2" t="n">
-        <v>86032.52134025063</v>
+        <v>86020.07171295618</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.154998165383304</v>
+        <v>1.154877330169833</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.154998165383304</v>
+        <v>1.154877330169833</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311288.7600656727</v>
+        <v>311281.3300791591</v>
       </c>
       <c r="JR2" t="n">
-        <v>385775.9098454297</v>
+        <v>385765.493432081</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.598903897925</v>
+        <v>3788.60030211754</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5399202221824</v>
+        <v>716.5396390096848</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.208038831213</v>
+        <v>1005.207677660431</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.1486169194117</v>
+        <v>323.142137224806</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993245345872217</v>
+        <v>0.9993244921768663</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.653379443128406e-05</v>
+        <v>1.653326074582787e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02331488829201344</v>
+        <v>0.0233140748265893</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937263430249</v>
+        <v>295.5937248144214</v>
       </c>
       <c r="KC2" t="n">
-        <v>135294.1527849379</v>
+        <v>135293.493454376</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595260577489419</v>
+        <v>1.595252807955273</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3663918112</v>
+        <v>336974.3666401656</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.598903903126</v>
+        <v>3788.600302129956</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698101.6365353354</v>
+        <v>-698102.0440509459</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.856188505811</v>
+        <v>717.8561867884601</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777156996073</v>
+        <v>1006.777146170582</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477506102775</v>
+        <v>1.402477494377661</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302725861854</v>
+        <v>0.9995302748304331</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027870808786</v>
+        <v>344.8027855134061</v>
       </c>
       <c r="KN2" t="n">
-        <v>189658.8741433251</v>
+        <v>189657.9487071063</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272624360536383e-06</v>
+        <v>5.272650088314124e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135231.312672067</v>
+        <v>135230.6539444797</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394737063781805e-06</v>
+        <v>7.394773084588943e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.00339562020741566</v>
+        <v>0.003395620163914925</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.83292570570017e-05</v>
+        <v>1.832925688774753e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729865942434</v>
+        <v>0.02606729833403831</v>
       </c>
       <c r="KU2" t="n">
-        <v>135294.1527849379</v>
+        <v>135293.493454376</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595260577489419</v>
+        <v>1.595252807955273</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595260577489419</v>
+        <v>1.595252807955273</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3663918112</v>
+        <v>336974.3666401656</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.598903903126</v>
+        <v>3788.600302129956</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.856188505811</v>
+        <v>717.8561867884601</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777156996073</v>
+        <v>1006.777146170582</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027870808786</v>
+        <v>344.8027855134061</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302725861854</v>
+        <v>0.9995302748304331</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.83292570570017e-05</v>
+        <v>1.832925688774753e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729865942434</v>
+        <v>0.02606729833403831</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8879241039236</v>
+        <v>268.881958667557</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97181.17776279108</v>
+        <v>97173.175444561</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259879872160338</v>
+        <v>1.259804111937397</v>
       </c>
       <c r="LL2" t="n">
-        <v>317877.4201683851</v>
+        <v>317873.1576753791</v>
       </c>
       <c r="LM2" t="n">
-        <v>395012.6930703585</v>
+        <v>395006.7171897411</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.598903897925</v>
+        <v>3788.600302124755</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623695.8014611547</v>
+        <v>-623679.5526540612</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8092871077006</v>
+        <v>716.809097109759</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.541587959787</v>
+        <v>1005.541348072542</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402802120515362</v>
+        <v>1.402802157683236</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993681217857321</v>
+        <v>0.9993680946250727</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8426615507633</v>
+        <v>328.8390090964166</v>
       </c>
       <c r="LU2" t="n">
-        <v>136240.2547065075</v>
+        <v>136229.0359443824</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.339974533622439e-06</v>
+        <v>7.340578996743876e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97120.08038343681</v>
+        <v>97112.08041579301</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029653184029431e-05</v>
+        <v>1.029738005527656e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003732261706970734</v>
+        <v>0.003732344291000215</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700359847851587e-05</v>
+        <v>1.700329651815955e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02403201725569296</v>
+        <v>0.0240315555730953</v>
       </c>
       <c r="MB2" t="n">
-        <v>97181.17776279108</v>
+        <v>97173.175444561</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259879872160338</v>
+        <v>1.259804111937397</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259879872160338</v>
+        <v>1.259804111937397</v>
       </c>
       <c r="ME2" t="n">
-        <v>317877.4201683851</v>
+        <v>317873.1576753791</v>
       </c>
       <c r="MF2" t="n">
-        <v>395012.6930703585</v>
+        <v>395006.7171897411</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.598903897925</v>
+        <v>3788.600302124755</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8092871077006</v>
+        <v>716.809097109759</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.541587959787</v>
+        <v>1005.541348072542</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8426615507633</v>
+        <v>328.8390090964166</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993681217857321</v>
+        <v>0.9993680946250727</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700359847851587e-05</v>
+        <v>1.700329651815955e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02403201725569296</v>
+        <v>0.0240315555730953</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8304535379926139</v>
+        <v>0.8305902993781172</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4206036837930657</v>
+        <v>0.4207132091317179</v>
       </c>
       <c r="MR2" t="n">
-        <v>247433.5269535307</v>
+        <v>247475.0915062243</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.737065943079198</v>
+        <v>2.737132877172373</v>
       </c>
       <c r="MT2" t="n">
-        <v>381350.1191053325</v>
+        <v>381344.143224621</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.2343262577869</v>
+        <v>135.2333018809306</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.0654110216706</v>
+        <v>123.0656480476921</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.06449507901439</v>
+        <v>-56.06150379913547</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.49242669086884</v>
+        <v>-24.49123175059087</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.2760387690242</v>
+        <v>253.2735395130676</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.0654110216706</v>
+        <v>123.0656480476921</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.3676950790144</v>
+        <v>-221.3647037991355</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.9289117554675</v>
+        <v>-60.92853609046328</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8550748439097</v>
+        <v>236.8497558331293</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99999764899</v>
+        <v>60000.00000169459</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831381998061369</v>
+        <v>0.8831580957817368</v>
       </c>
       <c r="NG2" t="n">
-        <v>294998.7806209673</v>
+        <v>294994.9682906973</v>
       </c>
       <c r="NH2" t="n">
-        <v>362938.3171632887</v>
+        <v>362932.9742811025</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.918289204705</v>
+        <v>3799.895731331443</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537091.6136270332</v>
+        <v>-537071.4018761</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0325228567427</v>
+        <v>716.0324541170347</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487934518018</v>
+        <v>1004.48794170373</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852387920076</v>
+        <v>1.402852532630522</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718552126804</v>
+        <v>0.9992717839310592</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6095781320052</v>
+        <v>308.6061068222638</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96885598845</v>
+        <v>84109.97153858277</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919712611215e-05</v>
+        <v>1.188919674691938e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39283238714</v>
+        <v>59956.38855986251</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878857881893e-05</v>
+        <v>1.667878976735842e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235401493051946</v>
+        <v>0.004235497468360611</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534201683290518e-05</v>
+        <v>1.534173482189784e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150500262387672</v>
+        <v>0.0215045768548765</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99999764899</v>
+        <v>60000.00000169459</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831381998061369</v>
+        <v>0.8831580957817368</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831381998061369</v>
+        <v>0.8831580957817368</v>
       </c>
       <c r="NZ2" t="n">
-        <v>294998.7806209673</v>
+        <v>294994.9682906973</v>
       </c>
       <c r="OA2" t="n">
-        <v>362938.3171632887</v>
+        <v>362932.9742811025</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.918289204705</v>
+        <v>3799.895731331443</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0325228567427</v>
+        <v>716.0324541170347</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487934518018</v>
+        <v>1004.48794170373</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6095781320052</v>
+        <v>308.6061068222638</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718552126804</v>
+        <v>0.9992717839310592</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534201683290518e-05</v>
+        <v>1.534173482189784e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150500262387672</v>
+        <v>0.0215045768548765</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9866206916279</v>
+        <v>245.9811652438104</v>
       </c>
       <c r="OL2" t="n">
-        <v>68470.68678435647</v>
+        <v>68470.75224552173</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9703791407884995</v>
+        <v>0.970401660560437</v>
       </c>
       <c r="ON2" t="n">
-        <v>301521.7216281602</v>
+        <v>301517.8102365903</v>
       </c>
       <c r="OO2" t="n">
-        <v>372082.4786624874</v>
+        <v>372076.9972499119</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.918289203846</v>
+        <v>3799.895731340013</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562646.5802030789</v>
+        <v>-562625.7825500856</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2041572021736</v>
+        <v>716.2040667114328</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719204882644</v>
+        <v>1004.719193685398</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.40283911337173</v>
+        <v>1.402839274983077</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991436744341</v>
+        <v>0.9992990709213188</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5094394893254</v>
+        <v>314.5059471258119</v>
       </c>
       <c r="OW2" t="n">
-        <v>95986.20506338765</v>
+        <v>95986.3009031496</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041816372821091e-05</v>
+        <v>1.041815332595223e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68422.81780459087</v>
+        <v>68422.87824049377</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.461500756744491e-05</v>
+        <v>1.461499465844136e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078483783255905</v>
+        <v>0.004078575094496827</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582395583067693e-05</v>
+        <v>1.582367082891572e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223504910976107</v>
+        <v>0.02223461751675935</v>
       </c>
       <c r="PD2" t="n">
-        <v>68470.68678435647</v>
+        <v>68470.75224552173</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9703791407884995</v>
+        <v>0.970401660560437</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9703791407884995</v>
+        <v>0.970401660560437</v>
       </c>
       <c r="PG2" t="n">
-        <v>301521.7216281602</v>
+        <v>301517.8102365903</v>
       </c>
       <c r="PH2" t="n">
-        <v>372082.4786624874</v>
+        <v>372076.9972499119</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.918289203846</v>
+        <v>3799.895731340013</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2041572021736</v>
+        <v>716.2040667114328</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719204882644</v>
+        <v>1004.719193685398</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5094394893254</v>
+        <v>314.5059471258119</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991436744341</v>
+        <v>0.9992990709213188</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582395583067693e-05</v>
+        <v>1.582367082891572e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223504910976107</v>
+        <v>0.02223461751675935</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8773570168483</v>
+        <v>268.8714139159864</v>
       </c>
       <c r="PS2" t="n">
-        <v>93421.2634215057</v>
+        <v>93421.37164310287</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.211153726529607</v>
+        <v>1.211181993273053</v>
       </c>
       <c r="PU2" t="n">
-        <v>317878.5841829724</v>
+        <v>317874.3191175649</v>
       </c>
       <c r="PV2" t="n">
-        <v>395012.6930703648</v>
+        <v>395006.7171898351</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.918289202154</v>
+        <v>3799.895731331443</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626699.2934102942</v>
+        <v>-626676.6208265709</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7969255530386</v>
+        <v>716.7967615151847</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.464158410027</v>
+        <v>1005.464081415136</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.40271829100588</v>
+        <v>1.402718504600604</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993923161032743</v>
+        <v>0.9993922397888414</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8342954662241</v>
+        <v>328.8306612121733</v>
       </c>
       <c r="QD2" t="n">
-        <v>130964.4673385018</v>
+        <v>130964.6290056686</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.635658895288869e-06</v>
+        <v>7.635649469573318e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93364.76766449523</v>
+        <v>93364.86870040839</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071067839630345e-05</v>
+        <v>1.071066680561428e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731897902562128</v>
+        <v>0.003731981239430108</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700249424984872e-05</v>
+        <v>1.700219463665813e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02402987210294949</v>
+        <v>0.02402941497456509</v>
       </c>
       <c r="QK2" t="n">
-        <v>93421.2634215057</v>
+        <v>93421.37164310287</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.211153726529607</v>
+        <v>1.211181993273053</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.211153726529607</v>
+        <v>1.211181993273053</v>
       </c>
       <c r="QN2" t="n">
-        <v>317878.5841829724</v>
+        <v>317874.3191175649</v>
       </c>
       <c r="QO2" t="n">
-        <v>395012.6930703648</v>
+        <v>395006.7171898351</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.918289202154</v>
+        <v>3799.895731331443</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7969255530386</v>
+        <v>716.7967615151847</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.464158410027</v>
+        <v>1005.464081415136</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8342954662241</v>
+        <v>328.8306612121733</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993923161032743</v>
+        <v>0.9993922397888414</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700249424984872e-05</v>
+        <v>1.700219463665813e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02402987210294949</v>
+        <v>0.02402941497456509</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4382052140972163</v>
+        <v>0.4382068238164056</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8207005119610624</v>
+        <v>0.8207016449578427</v>
       </c>
       <c r="RA2" t="n">
-        <v>379939.7495405625</v>
+        <v>379951.5439979297</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.737065942821826</v>
+        <v>2.737132877174571</v>
       </c>
       <c r="RC2" t="n">
-        <v>381350.1191053325</v>
+        <v>381344.143224621</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02438241703276283</v>
+        <v>0.02438973242133499</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001899441191851519</v>
+        <v>0.00164024530716784</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189653595440938</v>
+        <v>0.01189610940514927</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03194002581011251</v>
+        <v>0.03194365053040279</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04238224443048939</v>
+        <v>0.04238788745508679</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1125006644196256</v>
+        <v>0.1122576251191417</v>
       </c>
       <c r="RJ2" t="n">
-        <v>1.071653876749679e-11</v>
+        <v>-1.39450992420187e-10</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360272.3128478415</v>
+        <v>360272.6403170152</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.61892404716231</v>
+        <v>80.62185944600635</v>
       </c>
       <c r="D3" t="n">
-        <v>80.61892404716231</v>
+        <v>80.62185944600635</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.61892404716231</v>
+        <v>80.62185944600635</v>
       </c>
       <c r="H3" t="n">
-        <v>80.61892404716231</v>
+        <v>80.62185944600635</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3598005569163</v>
+        <v>292.3595645781415</v>
       </c>
       <c r="L3" t="n">
-        <v>132784.1265260234</v>
+        <v>132783.7518967249</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583034346610858</v>
+        <v>1.583031160688325</v>
       </c>
       <c r="N3" t="n">
-        <v>334655.2274950678</v>
+        <v>334655.0586839839</v>
       </c>
       <c r="O3" t="n">
-        <v>418534.7256312283</v>
+        <v>418534.4889783242</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687438.2356709752</v>
+        <v>-687437.5796356784</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7132413812249</v>
+        <v>717.7132306995495</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.648048090489</v>
+        <v>1006.648035696243</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576948633711</v>
+        <v>1.402576952239087</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994980159016477</v>
+        <v>0.999498014253417</v>
       </c>
       <c r="V3" t="n">
-        <v>342.912527605574</v>
+        <v>342.9123890858809</v>
       </c>
       <c r="W3" t="n">
-        <v>186147.428298818</v>
+        <v>186146.9032810012</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372086034918107e-06</v>
+        <v>5.372101186611916e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132718.1574459422</v>
+        <v>132717.7827810691</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.534764038653211e-06</v>
+        <v>7.534785309438125e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433373887799926</v>
+        <v>0.003433376654579892</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817176925474835e-05</v>
+        <v>1.817175770852323e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582485968177317</v>
+        <v>0.02582484189697259</v>
       </c>
       <c r="AD3" t="n">
-        <v>132784.1265260234</v>
+        <v>132783.7518967249</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583034346610858</v>
+        <v>1.583031160688325</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583034346610858</v>
+        <v>1.583031160688325</v>
       </c>
       <c r="AG3" t="n">
-        <v>334655.2274950678</v>
+        <v>334655.0586839839</v>
       </c>
       <c r="AH3" t="n">
-        <v>418534.7256312283</v>
+        <v>418534.4889783242</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7132413812249</v>
+        <v>717.7132306995495</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.648048090489</v>
+        <v>1006.648035696243</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.912527605574</v>
+        <v>342.9123890858809</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994980159016477</v>
+        <v>0.999498014253417</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817176925474835e-05</v>
+        <v>1.817175770852323e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582485968177317</v>
+        <v>0.02582484189697259</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2351005505984082</v>
+        <v>0.235109205768051</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2351005505984082</v>
+        <v>0.235109205768051</v>
       </c>
       <c r="DH3" t="n">
-        <v>183724.8331137808</v>
+        <v>183731.2696547206</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.739856258959436</v>
+        <v>2.739950505019179</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.0096461107576</v>
+        <v>270.0665350189432</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.9901773357499</v>
+        <v>111.0111475223303</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.1430265675535</v>
+        <v>246.195975724449</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.72855740543193</v>
+        <v>65.72911933586005</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.0096461107576</v>
+        <v>270.0665350189432</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.9901773357499</v>
+        <v>111.0111475223303</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.1430265675535</v>
+        <v>246.195975724449</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.72855740543193</v>
+        <v>65.72911933586005</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.224704315436</v>
+        <v>259.2093663384103</v>
       </c>
       <c r="ED3" t="n">
-        <v>85502.96502196143</v>
+        <v>85484.69034326398</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.149854237707444</v>
+        <v>1.149676573810748</v>
       </c>
       <c r="EF3" t="n">
-        <v>310971.9971300673</v>
+        <v>310961.0393458737</v>
       </c>
       <c r="EG3" t="n">
-        <v>385331.826591961</v>
+        <v>385316.4644198266</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.65838254207</v>
+        <v>3788.660435243543</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596782.0223747049</v>
+        <v>-596739.806271058</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5279782005456</v>
+        <v>716.5275668072705</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.19268997852</v>
+        <v>1005.192160807314</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402865932050432</v>
+        <v>1.402865998982126</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993227334871643</v>
+        <v>0.999322671437369</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8722512802587</v>
+        <v>322.8626866857921</v>
       </c>
       <c r="EO3" t="n">
-        <v>119868.2690363323</v>
+        <v>119842.6475743929</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.342491370229914e-06</v>
+        <v>8.344274932504687e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85445.27762616101</v>
+        <v>85427.00989356561</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.170339693172028e-05</v>
+        <v>1.17058995889697e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003871114496165203</v>
+        <v>0.003871343010756282</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.651103424345236e-05</v>
+        <v>1.651024662303709e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02328019875930381</v>
+        <v>0.02327899841289806</v>
       </c>
       <c r="EV3" t="n">
-        <v>85502.96502196143</v>
+        <v>85484.69034326398</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149854237707444</v>
+        <v>1.149676573810748</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.149854237707444</v>
+        <v>1.149676573810748</v>
       </c>
       <c r="EY3" t="n">
-        <v>310971.9971300673</v>
+        <v>310961.0393458737</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385331.826591961</v>
+        <v>385316.4644198266</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.65838254207</v>
+        <v>3788.660435243543</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5279782005456</v>
+        <v>716.5275668072705</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.19268997852</v>
+        <v>1005.192160807314</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8722512802587</v>
+        <v>322.8626866857921</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993227334871643</v>
+        <v>0.999322671437369</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.651103424345236e-05</v>
+        <v>1.651024662303709e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02328019875930381</v>
+        <v>0.02327899841289806</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.593661316462</v>
+        <v>295.5936590723367</v>
       </c>
       <c r="FK3" t="n">
-        <v>135266.1085936922</v>
+        <v>135265.1408516182</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3769493703</v>
+        <v>336974.3773135415</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.658382554516</v>
+        <v>3788.660435248744</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698118.9716880048</v>
+        <v>-698119.5699493792</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8561154590155</v>
+        <v>717.8561129383245</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776696540516</v>
+        <v>1006.776680651217</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402477007382959</v>
+        <v>1.402476990173259</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.999530368044061</v>
+        <v>0.9995303713381095</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027204047053</v>
+        <v>344.8027181037461</v>
       </c>
       <c r="FV3" t="n">
-        <v>189619.5113333941</v>
+        <v>189618.1530115739</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273718896162396e-06</v>
+        <v>5.273756674230245e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135203.2941254607</v>
+        <v>135202.3272682348</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396269495268798e-06</v>
+        <v>7.396322387380575e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618357235088</v>
+        <v>0.003395618293391767</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924985748484e-05</v>
+        <v>1.832924960903598e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606728481873156</v>
+        <v>0.02606728434110564</v>
       </c>
       <c r="GC3" t="n">
-        <v>135266.1085936922</v>
+        <v>135265.1408516182</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3769493703</v>
+        <v>336974.3773135415</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.658382554516</v>
+        <v>3788.660435248744</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8561154590155</v>
+        <v>717.8561129383245</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776696540516</v>
+        <v>1006.776680651217</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027204047053</v>
+        <v>344.8027181037461</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.999530368044061</v>
+        <v>0.9995303713381095</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924985748484e-05</v>
+        <v>1.832924960903598e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606728481873156</v>
+        <v>0.02606728434110564</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.593661316462</v>
+        <v>295.5936590723367</v>
       </c>
       <c r="GR3" t="n">
-        <v>135266.1085936922</v>
+        <v>135265.1408516182</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3769493703</v>
+        <v>336974.3773135415</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.658382554516</v>
+        <v>3788.660435248744</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698118.9716880048</v>
+        <v>-698119.5699493792</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8561154590155</v>
+        <v>717.8561129383245</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776696540516</v>
+        <v>1006.776680651217</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402477007382959</v>
+        <v>1.402476990173259</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.999530368044061</v>
+        <v>0.9995303713381095</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027204047053</v>
+        <v>344.8027181037461</v>
       </c>
       <c r="HC3" t="n">
-        <v>189619.5113333941</v>
+        <v>189618.1530115739</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273718896162396e-06</v>
+        <v>5.273756674230245e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135203.2941254607</v>
+        <v>135202.3272682348</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396269495268798e-06</v>
+        <v>7.396322387380575e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618357235088</v>
+        <v>0.003395618293391767</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924985748484e-05</v>
+        <v>1.832924960903598e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606728481873156</v>
+        <v>0.02606728434110564</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135266.1085936922</v>
+        <v>135265.1408516182</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594930105476021</v>
+        <v>1.594918701628445</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3769493703</v>
+        <v>336974.3773135415</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.658382554516</v>
+        <v>3788.660435248744</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8561154590155</v>
+        <v>717.8561129383245</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776696540516</v>
+        <v>1006.776680651217</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027204047053</v>
+        <v>344.8027181037461</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.999530368044061</v>
+        <v>0.9995303713381095</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924985748484e-05</v>
+        <v>1.832924960903598e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606728481873156</v>
+        <v>0.02606728434110564</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8362739288994659</v>
+        <v>0.83647490452116</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8362739288994659</v>
+        <v>0.83647490452116</v>
       </c>
       <c r="HZ3" t="n">
-        <v>491909.8639632531</v>
+        <v>491960.9523806378</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.739856258958207</v>
+        <v>2.739950505075206</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01597125674044328</v>
+        <v>0.01597184085326384</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.793336701803399e-07</v>
+        <v>-1.793564825352384e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379191296188898</v>
+        <v>0.01379193210590321</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02517508639432077</v>
+        <v>0.0251748232966106</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05493807676298285</v>
+        <v>0.05493841689929512</v>
       </c>
       <c r="II3" t="n">
-        <v>-2.823019595865617e-13</v>
+        <v>2.178611457903656e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383847.8503608659</v>
+        <v>383832.0469471756</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.0096461107576</v>
+        <v>270.0665350189432</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.9901773357499</v>
+        <v>111.0111475223303</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.1430265675535</v>
+        <v>246.195975724449</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.72855740543193</v>
+        <v>65.72911933586005</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.3094935701582</v>
+        <v>137.3576209703363</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.9901773357499</v>
+        <v>111.0111475223303</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.83982656755347</v>
+        <v>80.892775724449</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.06776715177219</v>
+        <v>36.08047034321103</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.2247043155354</v>
+        <v>259.2093663384971</v>
       </c>
       <c r="IV3" t="n">
-        <v>85502.9650240645</v>
+        <v>85484.69034121686</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.149854237735303</v>
+        <v>1.149676573782811</v>
       </c>
       <c r="IX3" t="n">
-        <v>310971.9971301333</v>
+        <v>310961.0393459409</v>
       </c>
       <c r="IY3" t="n">
-        <v>385331.8265920545</v>
+        <v>385316.4644199201</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.658382535375</v>
+        <v>3788.660435250773</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596782.0223732527</v>
+        <v>-596739.8062731676</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5279782005553</v>
+        <v>716.527566807265</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.192689978568</v>
+        <v>1005.192160807268</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.40286593205048</v>
+        <v>1.402865998982073</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.999322733487149</v>
+        <v>0.9993226714373863</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8722512803213</v>
+        <v>322.8626866858457</v>
       </c>
       <c r="JG3" t="n">
-        <v>119868.269039283</v>
+        <v>119842.6475715205</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.342491370024555e-06</v>
+        <v>8.34427493270468e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85445.27762826138</v>
+        <v>85427.00989152133</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.170339693143259e-05</v>
+        <v>1.170589958924982e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003871114496164034</v>
+        <v>0.00387134301075465</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.651103424345777e-05</v>
+        <v>1.651024662304122e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02328019875931231</v>
+        <v>0.02327899841290406</v>
       </c>
       <c r="JN3" t="n">
-        <v>85502.9650240645</v>
+        <v>85484.69034121686</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.149854237735303</v>
+        <v>1.149676573782811</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.149854237735303</v>
+        <v>1.149676573782811</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310971.9971301333</v>
+        <v>310961.0393459409</v>
       </c>
       <c r="JR3" t="n">
-        <v>385331.8265920545</v>
+        <v>385316.4644199201</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.658382535375</v>
+        <v>3788.660435250773</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5279782005553</v>
+        <v>716.527566807265</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.192689978568</v>
+        <v>1005.192160807268</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8722512803213</v>
+        <v>322.8626866858457</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.999322733487149</v>
+        <v>0.9993226714373863</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.651103424345777e-05</v>
+        <v>1.651024662304122e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02328019875931231</v>
+        <v>0.02327899841290406</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936613164693</v>
+        <v>295.593659072437</v>
       </c>
       <c r="KC3" t="n">
-        <v>135266.1085968484</v>
+        <v>135265.140851787</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594930105513214</v>
+        <v>1.594918701629894</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3769493692</v>
+        <v>336974.3773136133</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884896</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.658382547821</v>
+        <v>3788.660435248727</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698118.9716860536</v>
+        <v>-698119.5699496533</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561154590236</v>
+        <v>717.8561129383291</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776696540568</v>
+        <v>1006.776680651222</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402477007383015</v>
+        <v>1.402476990173258</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303680440504</v>
+        <v>0.9995303713381102</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027204047128</v>
+        <v>344.8027181038047</v>
       </c>
       <c r="KN3" t="n">
-        <v>189619.5113378242</v>
+        <v>189618.1530118107</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.273718896039185e-06</v>
+        <v>5.273756674223661e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135203.294128614</v>
+        <v>135202.3272684037</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396269495096296e-06</v>
+        <v>7.396322387371335e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618357235296</v>
+        <v>0.003395618293390617</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924985748565e-05</v>
+        <v>1.832924960904086e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606728481873312</v>
+        <v>0.02606728434111317</v>
       </c>
       <c r="KU3" t="n">
-        <v>135266.1085968484</v>
+        <v>135265.140851787</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594930105513214</v>
+        <v>1.594918701629894</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594930105513214</v>
+        <v>1.594918701629894</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3769493692</v>
+        <v>336974.3773136133</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884896</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.658382547821</v>
+        <v>3788.660435248727</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561154590236</v>
+        <v>717.8561129383291</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776696540568</v>
+        <v>1006.776680651222</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8027204047128</v>
+        <v>344.8027181038047</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303680440504</v>
+        <v>0.9995303713381102</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924985748565e-05</v>
+        <v>1.832924960904086e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606728481873312</v>
+        <v>0.02606728434111317</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6344489580171</v>
+        <v>268.6257115218195</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96841.56597368277</v>
+        <v>96829.87439147047</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256663141321694</v>
+        <v>1.256552345291045</v>
       </c>
       <c r="LL3" t="n">
-        <v>317696.3048295946</v>
+        <v>317690.0617026467</v>
       </c>
       <c r="LM3" t="n">
-        <v>394758.7751045083</v>
+        <v>394750.0224391352</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.658382549249</v>
+        <v>3788.660435250154</v>
       </c>
       <c r="LO3" t="n">
-        <v>-623005.3817817816</v>
+        <v>-622981.5826945041</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8012305895703</v>
+        <v>716.8009534829738</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.53141180367</v>
+        <v>1005.531061638953</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402803690747878</v>
+        <v>1.402803744544457</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993669704223387</v>
+        <v>0.9993669308330828</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6874307076628</v>
+        <v>328.6820785034656</v>
       </c>
       <c r="LU3" t="n">
-        <v>135764.1392000574</v>
+        <v>135747.7482801434</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.365715319908112e-06</v>
+        <v>7.366604696354112e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96780.56886753507</v>
+        <v>96768.88075617855</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033265263576529e-05</v>
+        <v>1.033390065262433e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003735773978470536</v>
+        <v>0.00373589516637073</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.699076564648945e-05</v>
+        <v>1.699032320556511e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.0240123972753431</v>
+        <v>0.02401172086102693</v>
       </c>
       <c r="MB3" t="n">
-        <v>96841.56597368277</v>
+        <v>96829.87439147047</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.256663141321694</v>
+        <v>1.256552345291045</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.256663141321694</v>
+        <v>1.256552345291045</v>
       </c>
       <c r="ME3" t="n">
-        <v>317696.3048295946</v>
+        <v>317690.0617026467</v>
       </c>
       <c r="MF3" t="n">
-        <v>394758.7751045083</v>
+        <v>394750.0224391352</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.658382549249</v>
+        <v>3788.660435250154</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8012305895703</v>
+        <v>716.8009534829738</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.53141180367</v>
+        <v>1005.531061638953</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6874307076628</v>
+        <v>328.6820785034656</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993669704223387</v>
+        <v>0.9993669308330828</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.699076564648945e-05</v>
+        <v>1.699032320556511e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.0240123972753431</v>
+        <v>0.02401172086102693</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8362739288993039</v>
+        <v>0.8364749045210211</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4252749904201107</v>
+        <v>0.4254366535207244</v>
       </c>
       <c r="MR3" t="n">
-        <v>249197.3896456782</v>
+        <v>249258.1073964025</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.739856259024589</v>
+        <v>2.739950505008626</v>
       </c>
       <c r="MT3" t="n">
-        <v>381096.2011392881</v>
+        <v>381087.4484740152</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5519907092413</v>
+        <v>142.5504937745046</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.0966684643577</v>
+        <v>127.0967162656618</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.55623068634611</v>
+        <v>-64.55283099788059</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.92738856692169</v>
+        <v>-26.92616156707678</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.6574213879936</v>
+        <v>262.6544693539647</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.0966684643577</v>
+        <v>127.0967162656618</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.8594306863461</v>
+        <v>-229.8560309978806</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.0603835301778</v>
+        <v>-61.06001554779056</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.183885282977</v>
+        <v>234.175943104123</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000204139</v>
+        <v>57499.99999794371</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559985489399335</v>
+        <v>0.8560276717201983</v>
       </c>
       <c r="NG3" t="n">
-        <v>293091.3035313283</v>
+        <v>293085.6115225641</v>
       </c>
       <c r="NH3" t="n">
-        <v>360264.31459922</v>
+        <v>360256.337303422</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.772306177797</v>
+        <v>3800.738241381765</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529815.311137437</v>
+        <v>-529785.1248640589</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9875938123821</v>
+        <v>715.9874991263221</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421568299363</v>
+        <v>1004.421586659369</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847726664049</v>
+        <v>1.402847937827136</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670776643167</v>
+        <v>0.9992669711120703</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8624411094717</v>
+        <v>306.8572279298677</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72480726693</v>
+        <v>80604.72833964045</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622063273696e-05</v>
+        <v>1.240622008905415e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92880809934</v>
+        <v>57457.92267727085</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403841112767e-05</v>
+        <v>1.740404026815921e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.00428357361165203</v>
+        <v>0.004283720187145842</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.519967833371279e-05</v>
+        <v>1.51992553972692e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128979103999978</v>
+        <v>0.0212891530822456</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000204139</v>
+        <v>57499.99999794371</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559985489399335</v>
+        <v>0.8560276717201983</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559985489399335</v>
+        <v>0.8560276717201983</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293091.3035313283</v>
+        <v>293085.6115225641</v>
       </c>
       <c r="OA3" t="n">
-        <v>360264.31459922</v>
+        <v>360256.337303422</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.772306177797</v>
+        <v>3800.738241381765</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9875938123821</v>
+        <v>715.9874991263221</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421568299363</v>
+        <v>1004.421586659369</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8624411094717</v>
+        <v>306.8572279298677</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670776643167</v>
+        <v>0.9992669711120703</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.519967833371279e-05</v>
+        <v>1.51992553972692e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128979103999978</v>
+        <v>0.0212891530822456</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3307141711414</v>
+        <v>244.322561979507</v>
       </c>
       <c r="OL3" t="n">
-        <v>66676.78109231117</v>
+        <v>66676.90691342832</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9513629553584527</v>
+        <v>0.9513965981134639</v>
       </c>
       <c r="ON3" t="n">
-        <v>300339.315271311</v>
+        <v>300333.470662072</v>
       </c>
       <c r="OO3" t="n">
-        <v>370424.8496267967</v>
+        <v>370416.6589409062</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.772306186472</v>
+        <v>3800.73824139044</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558220.5623456402</v>
+        <v>-558189.4456090921</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1697015763749</v>
+        <v>716.1695721319583</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.669565289735</v>
+        <v>1004.669554623507</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837292723132</v>
+        <v>1.402837531386199</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992958743515503</v>
+        <v>0.9992957653455582</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4478194937314</v>
+        <v>313.4425827720723</v>
       </c>
       <c r="OW3" t="n">
-        <v>93470.96849904314</v>
+        <v>93471.15059125451</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.06985090243313e-05</v>
+        <v>1.069848818244422e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66629.9427481009</v>
+        <v>66630.06121520855</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500826743586692e-05</v>
+        <v>1.500824075142447e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.0041060305113097</v>
+        <v>0.004106168808332564</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573704590549379e-05</v>
+        <v>1.573661889428268e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210319966344359</v>
+        <v>0.02210255337731771</v>
       </c>
       <c r="PD3" t="n">
-        <v>66676.78109231117</v>
+        <v>66676.90691342832</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9513629553584527</v>
+        <v>0.9513965981134639</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9513629553584527</v>
+        <v>0.9513965981134639</v>
       </c>
       <c r="PG3" t="n">
-        <v>300339.315271311</v>
+        <v>300333.470662072</v>
       </c>
       <c r="PH3" t="n">
-        <v>370424.8496267967</v>
+        <v>370416.6589409062</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.772306186472</v>
+        <v>3800.73824139044</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1697015763749</v>
+        <v>716.1695721319583</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.669565289735</v>
+        <v>1004.669554623507</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4478194937314</v>
+        <v>313.4425827720723</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992958743515503</v>
+        <v>0.9992957653455582</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573704590549379e-05</v>
+        <v>1.573661889428268e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210319966344359</v>
+        <v>0.02210255337731771</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6231741303038</v>
+        <v>268.6144702470497</v>
       </c>
       <c r="PS3" t="n">
-        <v>92837.3050105209</v>
+        <v>92837.78423170593</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204721243394021</v>
+        <v>1.204766635666244</v>
       </c>
       <c r="PU3" t="n">
-        <v>317697.541628443</v>
+        <v>317691.2946463911</v>
       </c>
       <c r="PV3" t="n">
-        <v>394758.7751043079</v>
+        <v>394750.0224392355</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.772306177797</v>
+        <v>3800.738241388683</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626216.7459277265</v>
+        <v>-626183.2668190887</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7880334379867</v>
+        <v>716.7877953399751</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.448762071582</v>
+        <v>1005.448656656836</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714212804403</v>
+        <v>1.402714531683604</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993928766890428</v>
+        <v>0.9993927631071365</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.6785283534917</v>
+        <v>328.6732034482348</v>
       </c>
       <c r="QD3" t="n">
-        <v>130145.5239180711</v>
+        <v>130146.2105382919</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.683706437952624e-06</v>
+        <v>7.68366590055865e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92781.21140433534</v>
+        <v>92781.67980628547</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.077804422753283e-05</v>
+        <v>1.077798981531541e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735385068500551</v>
+        <v>0.003735507388501882</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698958809359028e-05</v>
+        <v>1.698914917747975e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02401010943963927</v>
+        <v>0.02400943986489355</v>
       </c>
       <c r="QK3" t="n">
-        <v>92837.3050105209</v>
+        <v>92837.78423170593</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204721243394021</v>
+        <v>1.204766635666244</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204721243394021</v>
+        <v>1.204766635666244</v>
       </c>
       <c r="QN3" t="n">
-        <v>317697.541628443</v>
+        <v>317691.2946463911</v>
       </c>
       <c r="QO3" t="n">
-        <v>394758.7751043079</v>
+        <v>394750.0224392355</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.772306177797</v>
+        <v>3800.738241388683</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7880334379867</v>
+        <v>716.7877953399751</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.448762071582</v>
+        <v>1005.448656656836</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.6785283534917</v>
+        <v>328.6732034482348</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993928766890428</v>
+        <v>0.9993927631071365</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698958809359028e-05</v>
+        <v>1.698914917747975e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02401010943963927</v>
+        <v>0.02400943986489355</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4645468835933118</v>
+        <v>0.4645498974757232</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8559451604384903</v>
+        <v>0.8559500818210952</v>
       </c>
       <c r="RA3" t="n">
-        <v>385480.7710164537</v>
+        <v>385500.2799184654</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.739856258994599</v>
+        <v>2.739950504876989</v>
       </c>
       <c r="RC3" t="n">
-        <v>381096.2011392881</v>
+        <v>381087.4484740152</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02453974794778081</v>
+        <v>0.02455051016356111</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002167609832442468</v>
+        <v>0.001798087543801006</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01189015978331983</v>
+        <v>0.01188955364446832</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03202685943685918</v>
+        <v>0.03203205812058872</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04269102601486462</v>
+        <v>0.0426992435810534</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1133154030152669</v>
+        <v>0.1129694530534726</v>
       </c>
       <c r="RJ3" t="n">
-        <v>1.973139568400839e-10</v>
+        <v>5.161995830782473e-12</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357444.4675506005</v>
+        <v>357444.9424963851</v>
       </c>
     </row>
   </sheetData>
@@ -7566,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01595401972262802</v>
+        <v>0.01595443173417008</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.786755949196041e-07</v>
+        <v>-1.786910018971529e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379134453101148</v>
+        <v>0.01379135819422765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0251829021128309</v>
+        <v>0.02518271416010923</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05492808769087547</v>
+        <v>0.05492832539750506</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.750672606355309e-11</v>
+        <v>-4.587454027760174e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9685503188567525</v>
+        <v>0.9685559176408064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>338.0958596256044</v>
+        <v>338.0733054738706</v>
       </c>
       <c r="L2" t="n">
-        <v>138.1478906619198</v>
+        <v>138.1386749072781</v>
       </c>
       <c r="M2" t="n">
-        <v>308.5838145490438</v>
+        <v>308.5632291263662</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>338.0958596256044</v>
+        <v>338.0733054738706</v>
       </c>
       <c r="P2" t="n">
-        <v>138.1478906619198</v>
+        <v>138.1386749072781</v>
       </c>
       <c r="Q2" t="n">
-        <v>308.5838145490438</v>
+        <v>308.5632291263662</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>238.550347529745</v>
+        <v>238.5579654944873</v>
       </c>
       <c r="T2" t="n">
-        <v>63147.21202834806</v>
+        <v>63154.98675899109</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9228700649634155</v>
+        <v>0.922954203131604</v>
       </c>
       <c r="V2" t="n">
-        <v>296205.2124962121</v>
+        <v>296210.6516918999</v>
       </c>
       <c r="W2" t="n">
-        <v>364630.0259404009</v>
+        <v>364637.651151575</v>
       </c>
       <c r="X2" t="n">
-        <v>3792.370883060711</v>
+        <v>3792.367534061924</v>
       </c>
       <c r="Y2" t="n">
-        <v>-540041.3661754178</v>
+        <v>-540061.8321815834</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.0692961664068</v>
+        <v>716.0694341085275</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.573466381405</v>
+        <v>1004.573672177105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402899791625687</v>
+        <v>1.402899808770293</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9992573200105828</v>
+        <v>0.999257333290786</v>
       </c>
       <c r="AD2" t="n">
-        <v>309.7127839241946</v>
+        <v>309.7177351961103</v>
       </c>
       <c r="AE2" t="n">
-        <v>88523.55023988002</v>
+        <v>88534.45161383395</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129642899872647e-05</v>
+        <v>1.129503805322882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>63100.4087165046</v>
+        <v>63108.17854586388</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.584775788842774e-05</v>
+        <v>1.584580672492789e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.004205718628841697</v>
+        <v>0.004205584763901863</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.543228148686912e-05</v>
+        <v>1.543268551644724e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02164182501918937</v>
+        <v>0.02164243658307264</v>
       </c>
       <c r="AL2" t="n">
-        <v>63147.21202834806</v>
+        <v>63154.98675899109</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9228700649634155</v>
+        <v>0.922954203131604</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9228700649634155</v>
+        <v>0.922954203131604</v>
       </c>
       <c r="AO2" t="n">
-        <v>296205.2124962121</v>
+        <v>296210.6516918999</v>
       </c>
       <c r="AP2" t="n">
-        <v>364630.0259404009</v>
+        <v>364637.651151575</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3792.370883060711</v>
+        <v>3792.367534061924</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.0692961664068</v>
+        <v>716.0694341085275</v>
       </c>
       <c r="AS2" t="n">
-        <v>1004.573466381405</v>
+        <v>1004.573672177105</v>
       </c>
       <c r="AT2" t="n">
-        <v>309.7127839241946</v>
+        <v>309.7177351961103</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9992573200105828</v>
+        <v>0.999257333290786</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.543228148686912e-05</v>
+        <v>1.543268551644724e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02164182501918937</v>
+        <v>0.02164243658307264</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7718,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5896289137412</v>
+        <v>295.5896325280111</v>
       </c>
       <c r="BA2" t="n">
-        <v>133527.1257922502</v>
+        <v>133528.6843834913</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="BC2" t="n">
-        <v>336975.0315350418</v>
+        <v>336975.0309484205</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="BE2" t="n">
-        <v>3792.370883057754</v>
+        <v>3792.367534058962</v>
       </c>
       <c r="BF2" t="n">
-        <v>-699201.070937729</v>
+        <v>-699200.0947150586</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8515857589151</v>
+        <v>717.8515898188775</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.748143660334</v>
+        <v>1006.748169251881</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402446081659061</v>
+        <v>1.40244610937742</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995362887964684</v>
+        <v>0.9995362834885442</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.7985863365229</v>
+        <v>344.7985900413639</v>
       </c>
       <c r="BL2" t="n">
-        <v>187178.7167273437</v>
+        <v>187180.9042928964</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.342487743714274e-06</v>
+        <v>5.342425306564514e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>133465.8916126855</v>
+        <v>133467.4487962968</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.492551002483642e-06</v>
+        <v>7.492463585830873e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395503619092925</v>
+        <v>0.003395503721938511</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.83288034398889e-05</v>
+        <v>1.832880383998451e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606642662360855</v>
+        <v>0.02606642739273722</v>
       </c>
       <c r="BS2" t="n">
-        <v>133527.1257922502</v>
+        <v>133528.6843834913</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="BV2" t="n">
-        <v>336975.0315350418</v>
+        <v>336975.0309484205</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="BX2" t="n">
-        <v>3792.370883057754</v>
+        <v>3792.367534058962</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8515857589151</v>
+        <v>717.8515898188775</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.748143660334</v>
+        <v>1006.748169251881</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.7985863365229</v>
+        <v>344.7985900413639</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995362887964684</v>
+        <v>0.9995362834885442</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.83288034398889e-05</v>
+        <v>1.832880383998451e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606642662360855</v>
+        <v>0.02606642739273722</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7819,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5896289137412</v>
+        <v>295.5896325280111</v>
       </c>
       <c r="CH2" t="n">
-        <v>133527.1257922502</v>
+        <v>133528.6843834913</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336975.0315350418</v>
+        <v>336975.0309484205</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="CL2" t="n">
-        <v>3792.370883057754</v>
+        <v>3792.367534058962</v>
       </c>
       <c r="CM2" t="n">
-        <v>-699201.070937729</v>
+        <v>-699200.0947150586</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8515857589151</v>
+        <v>717.8515898188775</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.748143660334</v>
+        <v>1006.748169251881</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402446081659061</v>
+        <v>1.40244610937742</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995362887964684</v>
+        <v>0.9995362834885442</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.7985863365229</v>
+        <v>344.7985900413639</v>
       </c>
       <c r="CS2" t="n">
-        <v>187178.7167273437</v>
+        <v>187180.9042928964</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.342487743714274e-06</v>
+        <v>5.342425306564514e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>133465.8916126855</v>
+        <v>133467.4487962968</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.492551002483642e-06</v>
+        <v>7.492463585830873e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395503619092925</v>
+        <v>0.003395503721938511</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.83288034398889e-05</v>
+        <v>1.832880383998451e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606642662360855</v>
+        <v>0.02606642739273722</v>
       </c>
       <c r="CZ2" t="n">
-        <v>133527.1257922502</v>
+        <v>133528.6843834913</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.574437815798264</v>
+        <v>1.574456182484504</v>
       </c>
       <c r="DC2" t="n">
-        <v>336975.0315350418</v>
+        <v>336975.0309484205</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="DE2" t="n">
-        <v>3792.370883057754</v>
+        <v>3792.367534058962</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8515857589151</v>
+        <v>717.8515898188775</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.748143660334</v>
+        <v>1006.748169251881</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.7985863365229</v>
+        <v>344.7985900413639</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995362887964684</v>
+        <v>0.9995362834885442</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.83288034398889e-05</v>
+        <v>1.832880383998451e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606642662360855</v>
+        <v>0.02606642739273722</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7920,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02464867459752346</v>
+        <v>0.02463215229285682</v>
       </c>
       <c r="DO2" t="n">
-        <v>-2.133898149463746e-07</v>
+        <v>-2.133758624839219e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379699015885728</v>
+        <v>0.0137969906539078</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510782617055044</v>
+        <v>0.02510781433386739</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06355327753711625</v>
+        <v>0.06353674390476952</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.486728240518431e-10</v>
+        <v>1.150784467718324e-10</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.09164321647232</v>
+        <v>1.091552943391524</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.09164321647232</v>
+        <v>1.091552943391524</v>
       </c>
       <c r="DW2" t="n">
-        <v>528917.595299511</v>
+        <v>528916.6823504353</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.737065943327333</v>
+        <v>2.737132877429084</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7959,157 +7959,157 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>362385.4595935549</v>
+        <v>362393.8045722918</v>
       </c>
       <c r="EB2" t="n">
-        <v>1471.157306864974</v>
+        <v>1471.459398103005</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02438241703276283</v>
+        <v>0.02438973242133499</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.001899441191851519</v>
+        <v>0.00164024530716784</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01189653595440938</v>
+        <v>0.01189610940514927</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.03194002581011251</v>
+        <v>0.03194365053040279</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.04238224443048939</v>
+        <v>0.04238788745508679</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1125006644196256</v>
+        <v>0.1122576251191417</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.071653876749679e-11</v>
+        <v>-1.39450992420187e-10</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9436170294888163</v>
+        <v>0.9437317970314609</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>188.6962158199736</v>
+        <v>188.7305748741906</v>
       </c>
       <c r="EN2" t="n">
-        <v>152.3568433756917</v>
+        <v>152.3751324673404</v>
       </c>
       <c r="EO2" t="n">
-        <v>-111.3267898637746</v>
+        <v>-111.3599968476245</v>
       </c>
       <c r="EP2" t="n">
-        <v>-36.15551240722066</v>
+        <v>-36.16037637373612</v>
       </c>
       <c r="EQ2" t="n">
-        <v>315.811271197589</v>
+        <v>315.8491815477554</v>
       </c>
       <c r="ER2" t="n">
-        <v>152.3568433756917</v>
+        <v>152.3751324673404</v>
       </c>
       <c r="ES2" t="n">
-        <v>-276.6299898637746</v>
+        <v>-276.6631968476245</v>
       </c>
       <c r="ET2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EU2" t="n">
-        <v>219.078737011812</v>
+        <v>219.0608282696639</v>
       </c>
       <c r="EV2" t="n">
-        <v>44826.28584849116</v>
+        <v>44818.33270665766</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.7133500741770984</v>
+        <v>0.7132818957902533</v>
       </c>
       <c r="EX2" t="n">
-        <v>282305.2006625593</v>
+        <v>282292.3951976601</v>
       </c>
       <c r="EY2" t="n">
-        <v>345144.3135626337</v>
+        <v>345126.3644476477</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3805.450634596876</v>
+        <v>3805.41959617845</v>
       </c>
       <c r="FA2" t="n">
-        <v>-488549.0052256483</v>
+        <v>-488492.0042048135</v>
       </c>
       <c r="FB2" t="n">
-        <v>715.7797893914977</v>
+        <v>715.7796191225887</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.096577218746</v>
+        <v>1004.096432927805</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.402800962112039</v>
+        <v>1.402801094223162</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992486883201731</v>
+        <v>0.9992485798052473</v>
       </c>
       <c r="FF2" t="n">
-        <v>296.7905044418305</v>
+        <v>296.7783552165285</v>
       </c>
       <c r="FG2" t="n">
-        <v>62835.15845972893</v>
+        <v>62824.00923120147</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.591465708868866e-05</v>
+        <v>1.591748142529164e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>44792.63998017587</v>
+        <v>44784.68792896966</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.232509627569564e-05</v>
+        <v>2.232906036067597e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004578074720757783</v>
+        <v>0.004578449693477096</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.438304381852697e-05</v>
+        <v>1.438206442467098e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02005889186784518</v>
+        <v>0.02005742063847435</v>
       </c>
       <c r="FN2" t="n">
-        <v>44826.28584849116</v>
+        <v>44818.33270665766</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.7133500741770984</v>
+        <v>0.7132818957902533</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.7133500741770984</v>
+        <v>0.7132818957902533</v>
       </c>
       <c r="FQ2" t="n">
-        <v>282305.2006625593</v>
+        <v>282292.3951976601</v>
       </c>
       <c r="FR2" t="n">
-        <v>345144.3135626337</v>
+        <v>345126.3644476477</v>
       </c>
       <c r="FS2" t="n">
-        <v>3805.450634596876</v>
+        <v>3805.41959617845</v>
       </c>
       <c r="FT2" t="n">
-        <v>715.7797893914977</v>
+        <v>715.7796191225887</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.096577218746</v>
+        <v>1004.096432927805</v>
       </c>
       <c r="FV2" t="n">
-        <v>296.7905044418305</v>
+        <v>296.7783552165285</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992486883201731</v>
+        <v>0.9992485798052473</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.438304381852697e-05</v>
+        <v>1.438206442467098e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02005889186784518</v>
+        <v>0.02005742063847435</v>
       </c>
       <c r="FZ2" t="inlineStr">
         <is>
@@ -8120,97 +8120,97 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>236.860086033248</v>
+        <v>236.8486590316766</v>
       </c>
       <c r="GC2" t="n">
-        <v>58861.77091356134</v>
+        <v>58858.20717071835</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.8663542991132016</v>
+        <v>0.8663437347383931</v>
       </c>
       <c r="GE2" t="n">
-        <v>295005.5286140428</v>
+        <v>294997.348558497</v>
       </c>
       <c r="GF2" t="n">
-        <v>362947.444495123</v>
+        <v>362935.9793936256</v>
       </c>
       <c r="GG2" t="n">
-        <v>3805.450634608547</v>
+        <v>3805.419596199735</v>
       </c>
       <c r="GH2" t="n">
-        <v>-538411.9202135357</v>
+        <v>-538372.5490191458</v>
       </c>
       <c r="GI2" t="n">
-        <v>716.027329181172</v>
+        <v>716.0271642630504</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1004.45594161672</v>
+        <v>1004.455853004839</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.402817882336121</v>
+        <v>1.402818081683598</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9992857090438113</v>
+        <v>0.9992856019930421</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.6133179742274</v>
+        <v>308.605862408254</v>
       </c>
       <c r="GN2" t="n">
-        <v>82513.47212682373</v>
+        <v>82508.47928290126</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.21192330685466e-05</v>
+        <v>1.211996644091871e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>58819.80345831747</v>
+        <v>58816.23594691503</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.700107686875642e-05</v>
+        <v>1.700210807271918e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.004235056531841606</v>
+        <v>0.004235261870659623</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.53420988977869e-05</v>
+        <v>1.534149246743396e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.02150494167269213</v>
+        <v>0.02150402551014766</v>
       </c>
       <c r="GU2" t="n">
-        <v>58861.77091356134</v>
+        <v>58858.20717071835</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.8663542991132016</v>
+        <v>0.8663437347383931</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.8663542991132016</v>
+        <v>0.8663437347383931</v>
       </c>
       <c r="GX2" t="n">
-        <v>295005.5286140428</v>
+        <v>294997.348558497</v>
       </c>
       <c r="GY2" t="n">
-        <v>362947.444495123</v>
+        <v>362935.9793936256</v>
       </c>
       <c r="GZ2" t="n">
-        <v>3805.450634608547</v>
+        <v>3805.419596199735</v>
       </c>
       <c r="HA2" t="n">
-        <v>716.027329181172</v>
+        <v>716.0271642630504</v>
       </c>
       <c r="HB2" t="n">
-        <v>1004.45594161672</v>
+        <v>1004.455853004839</v>
       </c>
       <c r="HC2" t="n">
-        <v>308.6133179742274</v>
+        <v>308.605862408254</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.9992857090438113</v>
+        <v>0.9992856019930421</v>
       </c>
       <c r="HE2" t="n">
-        <v>1.53420988977869e-05</v>
+        <v>1.534149246743396e-05</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.02150494167269213</v>
+        <v>0.02150402551014766</v>
       </c>
       <c r="HG2" t="inlineStr">
         <is>
@@ -8221,97 +8221,97 @@
         <v>1</v>
       </c>
       <c r="HI2" t="n">
-        <v>268.8723414321111</v>
+        <v>268.8664057229556</v>
       </c>
       <c r="HJ2" t="n">
-        <v>91636.9161672997</v>
+        <v>91639.73115737068</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.188029179719441</v>
+        <v>1.188092013159715</v>
       </c>
       <c r="HL2" t="n">
-        <v>317879.1363098109</v>
+        <v>317874.8703780244</v>
       </c>
       <c r="HM2" t="n">
-        <v>395012.6930705464</v>
+        <v>395006.7171898349</v>
       </c>
       <c r="HN2" t="n">
-        <v>3805.450634601534</v>
+        <v>3805.41959618311</v>
       </c>
       <c r="HO2" t="n">
-        <v>-628167.729259081</v>
+        <v>-628142.7719036188</v>
       </c>
       <c r="HP2" t="n">
-        <v>716.7910582469077</v>
+        <v>716.7909027762117</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1005.427410187</v>
+        <v>1005.427386980004</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.402678505289987</v>
+        <v>1.402678777152264</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9994038051237329</v>
+        <v>0.9994037128094965</v>
       </c>
       <c r="HT2" t="n">
-        <v>328.8303269833933</v>
+        <v>328.826698818778</v>
       </c>
       <c r="HU2" t="n">
-        <v>128460.8633105652</v>
+        <v>128464.8225597169</v>
       </c>
       <c r="HV2" t="n">
-        <v>7.784472050311649e-06</v>
+        <v>7.784232135105699e-06</v>
       </c>
       <c r="HW2" t="n">
-        <v>91582.54213356432</v>
+        <v>91585.34701760281</v>
       </c>
       <c r="HX2" t="n">
-        <v>1.091911162000282e-05</v>
+        <v>1.091877721233943e-05</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.003731725201430304</v>
+        <v>0.003731808785212935</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.700197027962716e-05</v>
+        <v>1.700167144462712e-05</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.02402885426130967</v>
+        <v>0.02402839864185057</v>
       </c>
       <c r="IB2" t="n">
-        <v>91636.9161672997</v>
+        <v>91639.73115737068</v>
       </c>
       <c r="IC2" t="n">
-        <v>1.188029179719441</v>
+        <v>1.188092013159715</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.188029179719441</v>
+        <v>1.188092013159715</v>
       </c>
       <c r="IE2" t="n">
-        <v>317879.1363098109</v>
+        <v>317874.8703780244</v>
       </c>
       <c r="IF2" t="n">
-        <v>395012.6930705464</v>
+        <v>395006.7171898349</v>
       </c>
       <c r="IG2" t="n">
-        <v>3805.450634601534</v>
+        <v>3805.41959618311</v>
       </c>
       <c r="IH2" t="n">
-        <v>716.7910582469077</v>
+        <v>716.7909027762117</v>
       </c>
       <c r="II2" t="n">
-        <v>1005.427410187</v>
+        <v>1005.427386980004</v>
       </c>
       <c r="IJ2" t="n">
-        <v>328.8303269833933</v>
+        <v>328.826698818778</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.9994038051237329</v>
+        <v>0.9994037128094965</v>
       </c>
       <c r="IL2" t="n">
-        <v>1.700197027962716e-05</v>
+        <v>1.700167144462712e-05</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.02402885426130967</v>
+        <v>0.02402839864185057</v>
       </c>
       <c r="IN2" t="inlineStr">
         <is>
@@ -8322,52 +8322,52 @@
         <v>1</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02995672937057838</v>
+        <v>0.02999496609291264</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.002238573287792887</v>
+        <v>0.001933246665554199</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01191452607860472</v>
+        <v>0.01191413012863441</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03183734622363946</v>
+        <v>0.03184079030540563</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04249305104987034</v>
+        <v>0.04249882028945998</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1184402260104858</v>
+        <v>0.1181819534819669</v>
       </c>
       <c r="IV2" t="n">
-        <v>-8.365963755085914e-10</v>
+        <v>-9.376595333510096e-10</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.6357892621088124</v>
+        <v>0.6359310628852748</v>
       </c>
       <c r="IX2" t="n">
-        <v>1.064088191741614</v>
+        <v>1.064259491960972</v>
       </c>
       <c r="IY2" t="n">
-        <v>408182.0893269871</v>
+        <v>408219.8684954757</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.73706594220124</v>
+        <v>2.73713287646062</v>
       </c>
       <c r="JA2" t="n">
-        <v>381350.1191053325</v>
+        <v>381344.1432246211</v>
       </c>
       <c r="JB2" t="n">
         <v>0</v>
       </c>
       <c r="JC2" t="n">
-        <v>341483.2649784075</v>
+        <v>341472.6025958891</v>
       </c>
       <c r="JD2" t="n">
-        <v>2666.00431544712</v>
+        <v>2660.33396408736</v>
       </c>
       <c r="JE2" t="n">
-        <v>6.094960074882643</v>
+        <v>6.103829670324608</v>
       </c>
     </row>
     <row r="3">
@@ -8375,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01597125674044328</v>
+        <v>0.01597184085326384</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793336701803399e-07</v>
+        <v>-1.793564825352384e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379191296188898</v>
+        <v>0.01379193210590321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02517508639432077</v>
+        <v>0.0251748232966106</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05493807676298285</v>
+        <v>0.05493841689929512</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.823019595865617e-13</v>
+        <v>2.178611457903656e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9687822899598867</v>
+        <v>0.9687900712775139</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>337.1378185781524</v>
+        <v>337.1047977963314</v>
       </c>
       <c r="L3" t="n">
-        <v>137.756429642493</v>
+        <v>137.7429371632842</v>
       </c>
       <c r="M3" t="n">
-        <v>307.7093999340743</v>
+        <v>307.6792615028465</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>337.1378185781524</v>
+        <v>337.1047977963314</v>
       </c>
       <c r="P3" t="n">
-        <v>137.756429642493</v>
+        <v>137.7429371632842</v>
       </c>
       <c r="Q3" t="n">
-        <v>307.7093999340743</v>
+        <v>307.6792615028465</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>238.8734885475422</v>
+        <v>238.8846098080658</v>
       </c>
       <c r="T3" t="n">
-        <v>63477.1218312299</v>
+        <v>63488.4803627963</v>
       </c>
       <c r="U3" t="n">
-        <v>0.92643607332934</v>
+        <v>0.9265586923286343</v>
       </c>
       <c r="V3" t="n">
-        <v>296435.9355224382</v>
+        <v>296443.8761747688</v>
       </c>
       <c r="W3" t="n">
-        <v>364953.4767307719</v>
+        <v>364964.6087397364</v>
       </c>
       <c r="X3" t="n">
-        <v>3792.23120605136</v>
+        <v>3792.226485508416</v>
       </c>
       <c r="Y3" t="n">
-        <v>-540910.0208375697</v>
+        <v>-540939.9355547541</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.0751648317334</v>
+        <v>716.0753674438778</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.582202840284</v>
+        <v>1004.582503770502</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402900494498152</v>
+        <v>1.402900517799526</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9992578932508425</v>
+        <v>0.9992579133404189</v>
       </c>
       <c r="AD3" t="n">
-        <v>309.9227396406397</v>
+        <v>309.9299629966359</v>
       </c>
       <c r="AE3" t="n">
-        <v>88986.13457094877</v>
+        <v>89002.06097328459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123770579339749e-05</v>
+        <v>1.123569487115772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>63430.11134426969</v>
+        <v>63441.46277234676</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.576538301458209e-05</v>
+        <v>1.576256215258463e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004200047689955406</v>
+        <v>0.004199852787041925</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.54494153531307e-05</v>
+        <v>1.545000487485066e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0216677612104687</v>
+        <v>0.02166865364036781</v>
       </c>
       <c r="AL3" t="n">
-        <v>63477.1218312299</v>
+        <v>63488.4803627963</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.92643607332934</v>
+        <v>0.9265586923286343</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.92643607332934</v>
+        <v>0.9265586923286343</v>
       </c>
       <c r="AO3" t="n">
-        <v>296435.9355224382</v>
+        <v>296443.8761747688</v>
       </c>
       <c r="AP3" t="n">
-        <v>364953.4767307719</v>
+        <v>364964.6087397364</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3792.23120605136</v>
+        <v>3792.226485508416</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.0751648317334</v>
+        <v>716.0753674438778</v>
       </c>
       <c r="AS3" t="n">
-        <v>1004.582202840284</v>
+        <v>1004.582503770502</v>
       </c>
       <c r="AT3" t="n">
-        <v>309.9227396406397</v>
+        <v>309.9299629966359</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9992578932508425</v>
+        <v>0.9992579133404189</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.54494153531307e-05</v>
+        <v>1.545000487485066e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0216677612104687</v>
+        <v>0.02166865364036781</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8527,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5897796898197</v>
+        <v>295.5897847868492</v>
       </c>
       <c r="BA3" t="n">
-        <v>133592.1455572057</v>
+        <v>133594.343527324</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="BC3" t="n">
-        <v>336975.0070627222</v>
+        <v>336975.0062355173</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BE3" t="n">
-        <v>3792.231206048236</v>
+        <v>3792.226485505289</v>
       </c>
       <c r="BF3" t="n">
-        <v>-699160.3556402687</v>
+        <v>-699158.9796250085</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.851755128174</v>
+        <v>717.8517608536382</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.749211262252</v>
+        <v>1006.749247352128</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402447237985083</v>
+        <v>1.402447277074233</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995360673678099</v>
+        <v>0.9995360598825678</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.7987408918731</v>
+        <v>344.798746116645</v>
       </c>
       <c r="BL3" t="n">
-        <v>187269.9754738762</v>
+        <v>187273.060445422</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.339884289884463e-06</v>
+        <v>5.339796325331243e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>133530.8526422211</v>
+        <v>133533.0486263331</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.488905973508403e-06</v>
+        <v>7.488782816591797e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395507909490767</v>
+        <v>0.003395508054524381</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832882013069173e-05</v>
+        <v>1.83288206949243e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606645870940644</v>
+        <v>0.02606645979406574</v>
       </c>
       <c r="BS3" t="n">
-        <v>133592.1455572057</v>
+        <v>133594.343527324</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="BV3" t="n">
-        <v>336975.0070627222</v>
+        <v>336975.0062355173</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BX3" t="n">
-        <v>3792.231206048236</v>
+        <v>3792.226485505289</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.851755128174</v>
+        <v>717.8517608536382</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.749211262252</v>
+        <v>1006.749247352128</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.7987408918731</v>
+        <v>344.798746116645</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995360673678099</v>
+        <v>0.9995360598825678</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832882013069173e-05</v>
+        <v>1.83288206949243e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606645870940644</v>
+        <v>0.02606645979406574</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8628,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5897796898197</v>
+        <v>295.5897847868492</v>
       </c>
       <c r="CH3" t="n">
-        <v>133592.1455572057</v>
+        <v>133594.343527324</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336975.0070627222</v>
+        <v>336975.0062355173</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CL3" t="n">
-        <v>3792.231206048236</v>
+        <v>3792.226485505289</v>
       </c>
       <c r="CM3" t="n">
-        <v>-699160.3556402687</v>
+        <v>-699158.9796250085</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.851755128174</v>
+        <v>717.8517608536382</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.749211262252</v>
+        <v>1006.749247352128</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402447237985083</v>
+        <v>1.402447277074233</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995360673678099</v>
+        <v>0.9995360598825678</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.7987408918731</v>
+        <v>344.798746116645</v>
       </c>
       <c r="CS3" t="n">
-        <v>187269.9754738762</v>
+        <v>187273.060445422</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.339884289884463e-06</v>
+        <v>5.339796325331243e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>133530.8526422211</v>
+        <v>133533.0486263331</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.488905973508403e-06</v>
+        <v>7.488782816591797e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395507909490767</v>
+        <v>0.003395508054524381</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832882013069173e-05</v>
+        <v>1.83288206949243e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606645870940644</v>
+        <v>0.02606645979406574</v>
       </c>
       <c r="CZ3" t="n">
-        <v>133592.1455572057</v>
+        <v>133594.343527324</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.575204018798376</v>
+        <v>1.575229920010976</v>
       </c>
       <c r="DC3" t="n">
-        <v>336975.0070627222</v>
+        <v>336975.0062355173</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310883889</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="DE3" t="n">
-        <v>3792.231206048236</v>
+        <v>3792.226485505289</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.851755128174</v>
+        <v>717.8517608536382</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.749211262252</v>
+        <v>1006.749247352128</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.7987408918731</v>
+        <v>344.798746116645</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995360673678099</v>
+        <v>0.9995360598825678</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832882013069173e-05</v>
+        <v>1.83288206949243e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606645870940644</v>
+        <v>0.02606645979406574</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8729,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02396191688073826</v>
+        <v>0.02393879521402573</v>
       </c>
       <c r="DO3" t="n">
-        <v>-2.127989960150563e-07</v>
+        <v>-2.127786981217304e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379701078343929</v>
+        <v>0.01379701147959935</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510733300005937</v>
+        <v>0.02510731635235631</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.06286604786524091</v>
+        <v>0.06284291026728328</v>
       </c>
       <c r="DT3" t="n">
-        <v>5.046948969855691e-12</v>
+        <v>-2.761207928969611e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.087812462451349</v>
+        <v>1.087680566722071</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.087812462451349</v>
+        <v>1.087680566722071</v>
       </c>
       <c r="DW3" t="n">
-        <v>528869.6194842092</v>
+        <v>528867.6310012889</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.739856258967825</v>
+        <v>2.739950505016076</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8768,157 +8768,157 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>362738.9247225848</v>
+        <v>362751.0708863711</v>
       </c>
       <c r="EB3" t="n">
-        <v>1483.976231095148</v>
+        <v>1484.417472650937</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02453974794778081</v>
+        <v>0.02455051016356111</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.002167609832442468</v>
+        <v>0.001798087543801006</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01189015978331983</v>
+        <v>0.01188955364446832</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.03202685943685918</v>
+        <v>0.03203205812058872</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04269102601486462</v>
+        <v>0.0426992435810534</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1133154030152669</v>
+        <v>0.1129694530534726</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.973139568400839e-10</v>
+        <v>5.161995830782473e-12</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9438158167572253</v>
+        <v>0.9439809824133849</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>184.2925193706318</v>
+        <v>184.3417872880411</v>
       </c>
       <c r="EN3" t="n">
-        <v>150.0066172461504</v>
+        <v>150.0329809236497</v>
       </c>
       <c r="EO3" t="n">
-        <v>-107.0595510841589</v>
+        <v>-107.1074188640225</v>
       </c>
       <c r="EP3" t="n">
-        <v>-35.51540672846575</v>
+        <v>-35.52275657690942</v>
       </c>
       <c r="EQ3" t="n">
-        <v>310.9396298250909</v>
+        <v>310.9942774951268</v>
       </c>
       <c r="ER3" t="n">
-        <v>150.0066172461504</v>
+        <v>150.0329809236497</v>
       </c>
       <c r="ES3" t="n">
-        <v>-272.3627510841589</v>
+        <v>-272.4106188640225</v>
       </c>
       <c r="ET3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="EU3" t="n">
-        <v>220.3504270347657</v>
+        <v>220.3247380832212</v>
       </c>
       <c r="EV3" t="n">
-        <v>45839.58332114296</v>
+        <v>45827.75459426817</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.7252650968110712</v>
+        <v>0.7251625972332204</v>
       </c>
       <c r="EX3" t="n">
-        <v>283213.1474842722</v>
+        <v>283194.7793430354</v>
       </c>
       <c r="EY3" t="n">
-        <v>346417.0484064256</v>
+        <v>346391.302121677</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3804.831655095016</v>
+        <v>3804.788831667803</v>
       </c>
       <c r="FA3" t="n">
-        <v>-491979.2315891556</v>
+        <v>-491897.8006774966</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.7947099501574</v>
+        <v>715.7944547921044</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.122146496034</v>
+        <v>1004.121921997888</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.40280744260593</v>
+        <v>1.402807629027422</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9992490799066346</v>
+        <v>0.999248926695622</v>
       </c>
       <c r="FF3" t="n">
-        <v>297.6514604478733</v>
+        <v>297.6340835672519</v>
       </c>
       <c r="FG3" t="n">
-        <v>64255.87075336199</v>
+        <v>64239.28842942358</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.556278030747374e-05</v>
+        <v>1.556679758522931e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>45805.19663767741</v>
+        <v>45793.36973948537</v>
       </c>
       <c r="FJ3" t="n">
-        <v>2.183158404296517e-05</v>
+        <v>2.183722241208533e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004551735842033405</v>
+        <v>0.004552267496751918</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.445258837141292e-05</v>
+        <v>1.445118644611375e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02016346877702078</v>
+        <v>0.02016136184836817</v>
       </c>
       <c r="FN3" t="n">
-        <v>45839.58332114296</v>
+        <v>45827.75459426817</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.7252650968110712</v>
+        <v>0.7251625972332204</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.7252650968110712</v>
+        <v>0.7251625972332204</v>
       </c>
       <c r="FQ3" t="n">
-        <v>283213.1474842722</v>
+        <v>283194.7793430354</v>
       </c>
       <c r="FR3" t="n">
-        <v>346417.0484064256</v>
+        <v>346391.302121677</v>
       </c>
       <c r="FS3" t="n">
-        <v>3804.831655095016</v>
+        <v>3804.788831667803</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.7947099501574</v>
+        <v>715.7944547921044</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.122146496034</v>
+        <v>1004.121921997888</v>
       </c>
       <c r="FV3" t="n">
-        <v>297.6514604478733</v>
+        <v>297.6340835672519</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.9992490799066346</v>
+        <v>0.999248926695622</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.445258837141292e-05</v>
+        <v>1.445118644611375e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02016346877702078</v>
+        <v>0.02016136184836817</v>
       </c>
       <c r="FZ3" t="inlineStr">
         <is>
@@ -8929,97 +8929,97 @@
         <v>1</v>
       </c>
       <c r="GB3" t="n">
-        <v>237.3114091472355</v>
+        <v>237.2947977057861</v>
       </c>
       <c r="GC3" t="n">
-        <v>59381.83359302791</v>
+        <v>59376.16058827151</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.8723469055861375</v>
+        <v>0.8723247593257494</v>
       </c>
       <c r="GE3" t="n">
-        <v>295327.5623912971</v>
+        <v>295315.6721757332</v>
       </c>
       <c r="GF3" t="n">
-        <v>363398.9147544131</v>
+        <v>363382.2493919588</v>
       </c>
       <c r="GG3" t="n">
-        <v>3804.831655075543</v>
+        <v>3804.788831667433</v>
       </c>
       <c r="GH3" t="n">
-        <v>-539531.0468795724</v>
+        <v>-539474.3467317991</v>
       </c>
       <c r="GI3" t="n">
-        <v>716.0356268597493</v>
+        <v>716.0353822421644</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1004.470097518196</v>
+        <v>1004.469953373289</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.402821395805969</v>
+        <v>1.402821673738988</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9992853730783436</v>
+        <v>0.9992852225293702</v>
       </c>
       <c r="GM3" t="n">
-        <v>308.9074868974927</v>
+        <v>308.8966592051628</v>
       </c>
       <c r="GN3" t="n">
-        <v>83242.68758384725</v>
+        <v>83234.73897941438</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.201306720176156e-05</v>
+        <v>1.201421440448465e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>59339.47673789326</v>
+        <v>59333.79882673615</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.685218769988606e-05</v>
+        <v>1.685380035955821e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.004227046524953911</v>
+        <v>0.004227343806205939</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.536610270562506e-05</v>
+        <v>1.536522170353921e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.02154126949815109</v>
+        <v>0.02153993825223618</v>
       </c>
       <c r="GU3" t="n">
-        <v>59381.83359302791</v>
+        <v>59376.16058827151</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.8723469055861375</v>
+        <v>0.8723247593257494</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.8723469055861375</v>
+        <v>0.8723247593257494</v>
       </c>
       <c r="GX3" t="n">
-        <v>295327.5623912971</v>
+        <v>295315.6721757332</v>
       </c>
       <c r="GY3" t="n">
-        <v>363398.9147544131</v>
+        <v>363382.2493919588</v>
       </c>
       <c r="GZ3" t="n">
-        <v>3804.831655075543</v>
+        <v>3804.788831667433</v>
       </c>
       <c r="HA3" t="n">
-        <v>716.0356268597493</v>
+        <v>716.0353822421644</v>
       </c>
       <c r="HB3" t="n">
-        <v>1004.470097518196</v>
+        <v>1004.469953373289</v>
       </c>
       <c r="HC3" t="n">
-        <v>308.9074868974927</v>
+        <v>308.8966592051628</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.9992853730783436</v>
+        <v>0.9992852225293702</v>
       </c>
       <c r="HE3" t="n">
-        <v>1.536610270562506e-05</v>
+        <v>1.536522170353921e-05</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.02154126949815109</v>
+        <v>0.02153993825223618</v>
       </c>
       <c r="HG3" t="inlineStr">
         <is>
@@ -9030,97 +9030,97 @@
         <v>1</v>
       </c>
       <c r="HI3" t="n">
-        <v>268.6195007558688</v>
+        <v>268.6108044907936</v>
       </c>
       <c r="HJ3" t="n">
-        <v>91532.89075472709</v>
+        <v>91536.15773821519</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.187800466604446</v>
+        <v>1.187881472467094</v>
       </c>
       <c r="HL3" t="n">
-        <v>317697.9443266671</v>
+        <v>317691.6964530374</v>
       </c>
       <c r="HM3" t="n">
-        <v>394758.7751044081</v>
+        <v>394750.0224391352</v>
       </c>
       <c r="HN3" t="n">
-        <v>3804.831655078075</v>
+        <v>3804.788831657886</v>
       </c>
       <c r="HO3" t="n">
-        <v>-627293.2045427904</v>
+        <v>-627257.3665500761</v>
       </c>
       <c r="HP3" t="n">
-        <v>716.7837337689165</v>
+        <v>716.7835045018013</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1005.421836708458</v>
+        <v>1005.421786736004</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.402685062929449</v>
+        <v>1.40268544186828</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9994013208080417</v>
+        <v>0.9994011907144211</v>
       </c>
       <c r="HT3" t="n">
-        <v>328.6756296307965</v>
+        <v>328.6703109953929</v>
       </c>
       <c r="HU3" t="n">
-        <v>128315.3162539705</v>
+        <v>128319.9140770533</v>
       </c>
       <c r="HV3" t="n">
-        <v>7.793301915889224e-06</v>
+        <v>7.793022674559478e-06</v>
       </c>
       <c r="HW3" t="n">
-        <v>91478.35080384281</v>
+        <v>91481.60396256768</v>
       </c>
       <c r="HX3" t="n">
-        <v>1.093154818831727e-05</v>
+        <v>1.093115945375399e-05</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.003735258343398956</v>
+        <v>0.003735380918038121</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.698920454361624e-05</v>
+        <v>1.698876642937123e-05</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.02400936429272279</v>
+        <v>0.02400869627286275</v>
       </c>
       <c r="IB3" t="n">
-        <v>91532.89075472709</v>
+        <v>91536.15773821519</v>
       </c>
       <c r="IC3" t="n">
-        <v>1.187800466604446</v>
+        <v>1.187881472467094</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.187800466604446</v>
+        <v>1.187881472467094</v>
       </c>
       <c r="IE3" t="n">
-        <v>317697.9443266671</v>
+        <v>317691.6964530374</v>
       </c>
       <c r="IF3" t="n">
-        <v>394758.7751044081</v>
+        <v>394750.0224391352</v>
       </c>
       <c r="IG3" t="n">
-        <v>3804.831655078075</v>
+        <v>3804.788831657886</v>
       </c>
       <c r="IH3" t="n">
-        <v>716.7837337689165</v>
+        <v>716.7835045018013</v>
       </c>
       <c r="II3" t="n">
-        <v>1005.421836708458</v>
+        <v>1005.421786736004</v>
       </c>
       <c r="IJ3" t="n">
-        <v>328.6756296307965</v>
+        <v>328.6703109953929</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.9994013208080417</v>
+        <v>0.9994011907144211</v>
       </c>
       <c r="IL3" t="n">
-        <v>1.698920454361624e-05</v>
+        <v>1.698876642937123e-05</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.02400936429272279</v>
+        <v>0.02400869627286275</v>
       </c>
       <c r="IN3" t="inlineStr">
         <is>
@@ -9131,52 +9131,52 @@
         <v>1</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02709910828611714</v>
+        <v>0.02714037008874006</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.00246339551888002</v>
+        <v>0.002043695126469127</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01189775205045712</v>
+        <v>0.01189717570532401</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03198341153060221</v>
+        <v>0.03198843596188902</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04273691829893128</v>
+        <v>0.04274527801213142</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1161805856849878</v>
+        <v>0.1158149548945536</v>
       </c>
       <c r="IV3" t="n">
-        <v>3.846517548922179e-11</v>
+        <v>4.954442411886362e-11</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.6191554346594794</v>
+        <v>0.6193571148795806</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.044643387125409</v>
+        <v>1.044887983821436</v>
       </c>
       <c r="IY3" t="n">
-        <v>406632.0749979218</v>
+        <v>406685.5115884949</v>
       </c>
       <c r="IZ3" t="n">
-        <v>2.739856258962881</v>
+        <v>2.739950505105126</v>
       </c>
       <c r="JA3" t="n">
-        <v>381096.2011392881</v>
+        <v>381087.4484740152</v>
       </c>
       <c r="JB3" t="n">
         <v>0</v>
       </c>
       <c r="JC3" t="n">
-        <v>342881.8079181002</v>
+        <v>342866.2033512798</v>
       </c>
       <c r="JD3" t="n">
-        <v>2819.847048619471</v>
+        <v>2811.394807036966</v>
       </c>
       <c r="JE3" t="n">
-        <v>6.467767151772186</v>
+        <v>6.480470343211032</v>
       </c>
     </row>
   </sheetData>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4107228768129178</v>
+        <v>0.4105934178146989</v>
       </c>
     </row>
     <row r="3">
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.430192812248592</v>
+        <v>0.430008955263364</v>
       </c>
     </row>
   </sheetData>
@@ -10329,7 +10329,7 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>8.598480385520059e-10</v>
+        <v>9.612992458507532e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.018523993253076e-10</v>
+        <v>5.673389858577014e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
